--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.4328795244278</v>
+        <v>21.4328795244277</v>
       </c>
       <c r="C2">
-        <v>11.97262691632809</v>
+        <v>11.97262691632796</v>
       </c>
       <c r="D2">
-        <v>7.261425576061127</v>
+        <v>7.261425576061025</v>
       </c>
       <c r="E2">
-        <v>14.07634732588031</v>
+        <v>14.07634732588029</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.83667176775554</v>
+        <v>63.83667176775559</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.95820351541639</v>
+        <v>17.95820351541628</v>
       </c>
       <c r="K2">
-        <v>15.20670696090044</v>
+        <v>15.20670696090037</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75119309411095</v>
+        <v>19.75119309411079</v>
       </c>
       <c r="C3">
-        <v>11.02693374953344</v>
+        <v>11.02693374953351</v>
       </c>
       <c r="D3">
-        <v>6.717231250456441</v>
+        <v>6.717231250456379</v>
       </c>
       <c r="E3">
-        <v>13.00529855934367</v>
+        <v>13.0052985593436</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.72515837468956</v>
+        <v>59.72515837468922</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.56019944540476</v>
+        <v>16.56019944540467</v>
       </c>
       <c r="K3">
         <v>14.05599887592313</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68367449449895</v>
+        <v>18.68367449449898</v>
       </c>
       <c r="C4">
-        <v>10.42944241985027</v>
+        <v>10.42944241985018</v>
       </c>
       <c r="D4">
-        <v>6.369724210355493</v>
+        <v>6.369724210355441</v>
       </c>
       <c r="E4">
-        <v>12.33343340037495</v>
+        <v>12.33343340037496</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.67209178484125</v>
+        <v>15.67209178484121</v>
       </c>
       <c r="K4">
-        <v>13.32357581844297</v>
+        <v>13.32357581844295</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23931775216397</v>
+        <v>18.23931775216389</v>
       </c>
       <c r="C5">
-        <v>10.1813035528888</v>
+        <v>10.18130355288884</v>
       </c>
       <c r="D5">
-        <v>6.225877171767137</v>
+        <v>6.22587717176712</v>
       </c>
       <c r="E5">
         <v>12.08143685830643</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.06086106472738</v>
+        <v>56.06086106472746</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.3021852876347</v>
+        <v>15.30218528763465</v>
       </c>
       <c r="K5">
-        <v>13.01820117635535</v>
+        <v>13.01820117635538</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16495471703847</v>
+        <v>18.1649547170385</v>
       </c>
       <c r="C6">
-        <v>10.13980771271919</v>
+        <v>10.1398077127193</v>
       </c>
       <c r="D6">
-        <v>6.205407210212889</v>
+        <v>6.205407210212888</v>
       </c>
       <c r="E6">
-        <v>12.03935544927028</v>
+        <v>12.03935544927029</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.88159599207103</v>
+        <v>55.88159599207081</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.24026574203617</v>
+        <v>15.2402657420362</v>
       </c>
       <c r="K6">
-        <v>12.96706615480679</v>
+        <v>12.96706615480683</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67772019101407</v>
+        <v>18.6777201910139</v>
       </c>
       <c r="C7">
-        <v>10.42611530528568</v>
+        <v>10.42611530528561</v>
       </c>
       <c r="D7">
-        <v>6.367781314264242</v>
+        <v>6.367781314264258</v>
       </c>
       <c r="E7">
         <v>12.33005077139383</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.11967581102091</v>
+        <v>57.11967581102088</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.66713610884128</v>
+        <v>15.66713610884113</v>
       </c>
       <c r="K7">
-        <v>13.31948588154788</v>
+        <v>13.3194858815479</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.85993130227516</v>
+        <v>20.85993130227517</v>
       </c>
       <c r="C8">
-        <v>11.64977141716353</v>
+        <v>11.64977141716368</v>
       </c>
       <c r="D8">
-        <v>7.076457166132258</v>
+        <v>7.076457166132188</v>
       </c>
       <c r="E8">
-        <v>13.71203133906979</v>
+        <v>13.71203133906976</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.43239187476166</v>
+        <v>62.43239187476116</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.48200589801026</v>
+        <v>17.48200589801031</v>
       </c>
       <c r="K8">
-        <v>14.81505842367558</v>
+        <v>14.81505842367565</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89225335147269</v>
+        <v>24.89225335147271</v>
       </c>
       <c r="C9">
-        <v>13.93864971078576</v>
+        <v>13.93864971078604</v>
       </c>
       <c r="D9">
-        <v>8.368772899613997</v>
+        <v>8.368772899614083</v>
       </c>
       <c r="E9">
-        <v>16.26370715802848</v>
+        <v>16.26370715802841</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.36689919353118</v>
+        <v>72.36689919353093</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.83301633451067</v>
+        <v>20.83301633451074</v>
       </c>
       <c r="K9">
-        <v>17.56382402527024</v>
+        <v>17.56382402527022</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75816982091801</v>
+        <v>27.75816982091806</v>
       </c>
       <c r="C10">
-        <v>15.59254603655432</v>
+        <v>15.59254603655439</v>
       </c>
       <c r="D10">
-        <v>9.273732136593532</v>
+        <v>9.273732136593505</v>
       </c>
       <c r="E10">
         <v>18.06025505777975</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.46517267831769</v>
+        <v>79.46517267831791</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.2165938253541</v>
+        <v>23.21659382535408</v>
       </c>
       <c r="K10">
-        <v>19.50802853332409</v>
+        <v>19.5080285333241</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.05758488231339</v>
+        <v>29.05758488231344</v>
       </c>
       <c r="C11">
-        <v>16.3510245279507</v>
+        <v>16.35102452795077</v>
       </c>
       <c r="D11">
-        <v>9.680195761872811</v>
+        <v>9.680195761872932</v>
       </c>
       <c r="E11">
-        <v>18.87017444709912</v>
+        <v>18.87017444709911</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.68336019809793</v>
+        <v>82.68336019809843</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24.29855166250778</v>
+        <v>24.29855166250779</v>
       </c>
       <c r="K11">
-        <v>20.38729328488457</v>
+        <v>20.38729328488459</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.55091167685945</v>
+        <v>29.5509116768595</v>
       </c>
       <c r="C12">
-        <v>16.64049437721977</v>
+        <v>16.64049437721958</v>
       </c>
       <c r="D12">
-        <v>9.83386054186993</v>
+        <v>9.833860541870038</v>
       </c>
       <c r="E12">
-        <v>19.1768955223982</v>
+        <v>19.17689552239829</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.90431902111438</v>
+        <v>83.90431902111463</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.70957797584024</v>
+        <v>24.70957797584021</v>
       </c>
       <c r="K12">
         <v>20.72076492657741</v>
@@ -833,10 +833,10 @@
         <v>29.44457254268483</v>
       </c>
       <c r="C13">
-        <v>16.57802554442337</v>
+        <v>16.57802554442328</v>
       </c>
       <c r="D13">
-        <v>9.800767994926478</v>
+        <v>9.800767994926517</v>
       </c>
       <c r="E13">
         <v>19.11081612880519</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.64118644598999</v>
+        <v>83.6411864459896</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24.62096626206556</v>
+        <v>24.62096626206554</v>
       </c>
       <c r="K13">
-        <v>20.6488990579828</v>
+        <v>20.64889905798275</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.0981330119168</v>
+        <v>29.09813301191647</v>
       </c>
       <c r="C14">
-        <v>16.37478498610176</v>
+        <v>16.3747849861015</v>
       </c>
       <c r="D14">
-        <v>9.692839619116187</v>
+        <v>9.692839619116199</v>
       </c>
       <c r="E14">
-        <v>18.89540084923823</v>
+        <v>18.89540084923808</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.78373657044084</v>
+        <v>82.78373657043966</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>24.33232958468633</v>
+        <v>24.33232958468602</v>
       </c>
       <c r="K14">
-        <v>20.41470941862412</v>
+        <v>20.41470941862394</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.88615903054215</v>
+        <v>28.88615903054195</v>
       </c>
       <c r="C15">
-        <v>16.25063485780634</v>
+        <v>16.25063485780645</v>
       </c>
       <c r="D15">
-        <v>9.626714297840429</v>
+        <v>9.626714297840454</v>
       </c>
       <c r="E15">
-        <v>18.76349286727947</v>
+        <v>18.76349286727946</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.25895885236687</v>
+        <v>82.25895885236643</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.15575921226963</v>
+        <v>24.15575921226949</v>
       </c>
       <c r="K15">
-        <v>20.27137173730724</v>
+        <v>20.27137173730726</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67331269414801</v>
+        <v>27.67331269414803</v>
       </c>
       <c r="C16">
-        <v>15.54320930684878</v>
+        <v>15.54320930684887</v>
       </c>
       <c r="D16">
-        <v>9.247103303646247</v>
+        <v>9.24710330364622</v>
       </c>
       <c r="E16">
-        <v>18.00726271564011</v>
+        <v>18.00726271564023</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.25494177005234</v>
+        <v>79.25494177005292</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>23.14596893417772</v>
       </c>
       <c r="K16">
-        <v>19.45056216006811</v>
+        <v>19.45056216006821</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.92935198263398</v>
+        <v>26.92935198263388</v>
       </c>
       <c r="C17">
-        <v>15.11165344237388</v>
+        <v>15.1116534423739</v>
       </c>
       <c r="D17">
-        <v>9.013202871290616</v>
+        <v>9.013202871290588</v>
       </c>
       <c r="E17">
-        <v>17.54213869719203</v>
+        <v>17.54213869719208</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.41168878284127</v>
+        <v>77.41168878284103</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.52693243471664</v>
+        <v>22.5269324347166</v>
       </c>
       <c r="K17">
-        <v>18.94648937504383</v>
+        <v>18.94648937504387</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50090175066151</v>
+        <v>26.50090175066176</v>
       </c>
       <c r="C18">
-        <v>14.863908616408</v>
+        <v>14.86390861640811</v>
       </c>
       <c r="D18">
-        <v>8.87814338650972</v>
+        <v>8.878143386509606</v>
       </c>
       <c r="E18">
-        <v>17.27384204933946</v>
+        <v>17.27384204933954</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.35018735761111</v>
+        <v>76.35018735761166</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.17053762761909</v>
+        <v>22.1705376276193</v>
       </c>
       <c r="K18">
-        <v>18.6559820647154</v>
+        <v>18.65598206471548</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.35569326113701</v>
+        <v>26.35569326113703</v>
       </c>
       <c r="C19">
-        <v>14.7800721972029</v>
+        <v>14.78007219720289</v>
       </c>
       <c r="D19">
-        <v>8.832311200300651</v>
+        <v>8.832311200300701</v>
       </c>
       <c r="E19">
-        <v>17.18284100345279</v>
+        <v>17.18284100345284</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.99045681286835</v>
+        <v>75.99045681286871</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.04976668537435</v>
+        <v>22.0497666853744</v>
       </c>
       <c r="K19">
         <v>18.55748915764376</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00859214201365</v>
+        <v>27.00859214201382</v>
       </c>
       <c r="C20">
         <v>15.15753544311726</v>
       </c>
       <c r="D20">
-        <v>9.038153259821135</v>
+        <v>9.038153259821106</v>
       </c>
       <c r="E20">
-        <v>17.59172471754475</v>
+        <v>17.59172471754478</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.6080176324524</v>
+        <v>77.60801763245328</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.59285474341826</v>
+        <v>22.59285474341836</v>
       </c>
       <c r="K20">
-        <v>19.00020059553339</v>
+        <v>19.00020059553345</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.19983853925962</v>
+        <v>29.19983853925959</v>
       </c>
       <c r="C21">
-        <v>16.43440764630968</v>
+        <v>16.43440764630953</v>
       </c>
       <c r="D21">
-        <v>9.724543061575739</v>
+        <v>9.72454306157567</v>
       </c>
       <c r="E21">
-        <v>18.95866280254387</v>
+        <v>18.95866280254385</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.03549100909102</v>
+        <v>83.03549100909051</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.41705802554184</v>
+        <v>24.41705802554177</v>
       </c>
       <c r="K21">
-        <v>20.48347084226707</v>
+        <v>20.48347084226702</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.64064739234952</v>
+        <v>30.64064739234938</v>
       </c>
       <c r="C22">
-        <v>17.28299643724911</v>
+        <v>17.28299643724932</v>
       </c>
       <c r="D22">
-        <v>10.17199850173503</v>
+        <v>10.17199850173499</v>
       </c>
       <c r="E22">
-        <v>19.85291495647505</v>
+        <v>19.85291495647495</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.5988487769575</v>
+        <v>86.59884877695687</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.61808065220631</v>
+        <v>25.61808065220625</v>
       </c>
       <c r="K22">
-        <v>21.45674090344333</v>
+        <v>21.45674090344324</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.87008505998288</v>
+        <v>29.87008505998286</v>
       </c>
       <c r="C23">
-        <v>16.8282333678986</v>
+        <v>16.82823336789837</v>
       </c>
       <c r="D23">
-        <v>9.93308471881463</v>
+        <v>9.93308471881468</v>
       </c>
       <c r="E23">
-        <v>19.37511171570258</v>
+        <v>19.37511171570259</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.69391383379144</v>
+        <v>84.69391383379089</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.97558693787575</v>
+        <v>24.97558693787564</v>
       </c>
       <c r="K23">
-        <v>20.93641676374215</v>
+        <v>20.93641676374203</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97277009695746</v>
+        <v>26.97277009695752</v>
       </c>
       <c r="C24">
-        <v>15.13679115959204</v>
+        <v>15.13679115959222</v>
       </c>
       <c r="D24">
-        <v>9.026875052926494</v>
+        <v>9.026875052926558</v>
       </c>
       <c r="E24">
-        <v>17.56930972885203</v>
+        <v>17.56930972885206</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.51926321132116</v>
+        <v>77.51926321132156</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.56305295043803</v>
+        <v>22.5630529504382</v>
       </c>
       <c r="K24">
-        <v>18.9759200511913</v>
+        <v>18.97592005119132</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.82300259988417</v>
+        <v>23.82300259988398</v>
       </c>
       <c r="C25">
-        <v>13.32770305132359</v>
+        <v>13.32770305132355</v>
       </c>
       <c r="D25">
-        <v>8.028236582784293</v>
+        <v>8.028236582784242</v>
       </c>
       <c r="E25">
-        <v>15.58983646379591</v>
+        <v>15.58983646379594</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.72325675831482</v>
+        <v>69.72325675831425</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.94435330609614</v>
+        <v>19.94435330609596</v>
       </c>
       <c r="K25">
-        <v>16.83656485806133</v>
+        <v>16.83656485806131</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.4328795244277</v>
+        <v>21.4328795244278</v>
       </c>
       <c r="C2">
-        <v>11.97262691632796</v>
+        <v>11.97262691632809</v>
       </c>
       <c r="D2">
-        <v>7.261425576061025</v>
+        <v>7.261425576061127</v>
       </c>
       <c r="E2">
-        <v>14.07634732588029</v>
+        <v>14.07634732588031</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.83667176775559</v>
+        <v>63.83667176775554</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.95820351541628</v>
+        <v>17.95820351541639</v>
       </c>
       <c r="K2">
-        <v>15.20670696090037</v>
+        <v>15.20670696090044</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75119309411079</v>
+        <v>19.75119309411095</v>
       </c>
       <c r="C3">
-        <v>11.02693374953351</v>
+        <v>11.02693374953344</v>
       </c>
       <c r="D3">
-        <v>6.717231250456379</v>
+        <v>6.717231250456441</v>
       </c>
       <c r="E3">
-        <v>13.0052985593436</v>
+        <v>13.00529855934367</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.72515837468922</v>
+        <v>59.72515837468956</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.56019944540467</v>
+        <v>16.56019944540476</v>
       </c>
       <c r="K3">
         <v>14.05599887592313</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68367449449898</v>
+        <v>18.68367449449895</v>
       </c>
       <c r="C4">
-        <v>10.42944241985018</v>
+        <v>10.42944241985027</v>
       </c>
       <c r="D4">
-        <v>6.369724210355441</v>
+        <v>6.369724210355493</v>
       </c>
       <c r="E4">
-        <v>12.33343340037496</v>
+        <v>12.33343340037495</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.67209178484121</v>
+        <v>15.67209178484125</v>
       </c>
       <c r="K4">
-        <v>13.32357581844295</v>
+        <v>13.32357581844297</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23931775216389</v>
+        <v>18.23931775216397</v>
       </c>
       <c r="C5">
-        <v>10.18130355288884</v>
+        <v>10.1813035528888</v>
       </c>
       <c r="D5">
-        <v>6.22587717176712</v>
+        <v>6.225877171767137</v>
       </c>
       <c r="E5">
         <v>12.08143685830643</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.06086106472746</v>
+        <v>56.06086106472738</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.30218528763465</v>
+        <v>15.3021852876347</v>
       </c>
       <c r="K5">
-        <v>13.01820117635538</v>
+        <v>13.01820117635535</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1649547170385</v>
+        <v>18.16495471703847</v>
       </c>
       <c r="C6">
-        <v>10.1398077127193</v>
+        <v>10.13980771271919</v>
       </c>
       <c r="D6">
-        <v>6.205407210212888</v>
+        <v>6.205407210212889</v>
       </c>
       <c r="E6">
-        <v>12.03935544927029</v>
+        <v>12.03935544927028</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.88159599207081</v>
+        <v>55.88159599207103</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.2402657420362</v>
+        <v>15.24026574203617</v>
       </c>
       <c r="K6">
-        <v>12.96706615480683</v>
+        <v>12.96706615480679</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.6777201910139</v>
+        <v>18.67772019101407</v>
       </c>
       <c r="C7">
-        <v>10.42611530528561</v>
+        <v>10.42611530528568</v>
       </c>
       <c r="D7">
-        <v>6.367781314264258</v>
+        <v>6.367781314264242</v>
       </c>
       <c r="E7">
         <v>12.33005077139383</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.11967581102088</v>
+        <v>57.11967581102091</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.66713610884113</v>
+        <v>15.66713610884128</v>
       </c>
       <c r="K7">
-        <v>13.3194858815479</v>
+        <v>13.31948588154788</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.85993130227517</v>
+        <v>20.85993130227516</v>
       </c>
       <c r="C8">
-        <v>11.64977141716368</v>
+        <v>11.64977141716353</v>
       </c>
       <c r="D8">
-        <v>7.076457166132188</v>
+        <v>7.076457166132258</v>
       </c>
       <c r="E8">
-        <v>13.71203133906976</v>
+        <v>13.71203133906979</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.43239187476116</v>
+        <v>62.43239187476166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.48200589801031</v>
+        <v>17.48200589801026</v>
       </c>
       <c r="K8">
-        <v>14.81505842367565</v>
+        <v>14.81505842367558</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89225335147271</v>
+        <v>24.89225335147269</v>
       </c>
       <c r="C9">
-        <v>13.93864971078604</v>
+        <v>13.93864971078576</v>
       </c>
       <c r="D9">
-        <v>8.368772899614083</v>
+        <v>8.368772899613997</v>
       </c>
       <c r="E9">
-        <v>16.26370715802841</v>
+        <v>16.26370715802848</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.36689919353093</v>
+        <v>72.36689919353118</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.83301633451074</v>
+        <v>20.83301633451067</v>
       </c>
       <c r="K9">
-        <v>17.56382402527022</v>
+        <v>17.56382402527024</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75816982091806</v>
+        <v>27.75816982091801</v>
       </c>
       <c r="C10">
-        <v>15.59254603655439</v>
+        <v>15.59254603655432</v>
       </c>
       <c r="D10">
-        <v>9.273732136593505</v>
+        <v>9.273732136593532</v>
       </c>
       <c r="E10">
         <v>18.06025505777975</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.46517267831791</v>
+        <v>79.46517267831769</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.21659382535408</v>
+        <v>23.2165938253541</v>
       </c>
       <c r="K10">
-        <v>19.5080285333241</v>
+        <v>19.50802853332409</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.05758488231344</v>
+        <v>29.05758488231339</v>
       </c>
       <c r="C11">
-        <v>16.35102452795077</v>
+        <v>16.3510245279507</v>
       </c>
       <c r="D11">
-        <v>9.680195761872932</v>
+        <v>9.680195761872811</v>
       </c>
       <c r="E11">
-        <v>18.87017444709911</v>
+        <v>18.87017444709912</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.68336019809843</v>
+        <v>82.68336019809793</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24.29855166250779</v>
+        <v>24.29855166250778</v>
       </c>
       <c r="K11">
-        <v>20.38729328488459</v>
+        <v>20.38729328488457</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.5509116768595</v>
+        <v>29.55091167685945</v>
       </c>
       <c r="C12">
-        <v>16.64049437721958</v>
+        <v>16.64049437721977</v>
       </c>
       <c r="D12">
-        <v>9.833860541870038</v>
+        <v>9.83386054186993</v>
       </c>
       <c r="E12">
-        <v>19.17689552239829</v>
+        <v>19.1768955223982</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.90431902111463</v>
+        <v>83.90431902111438</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.70957797584021</v>
+        <v>24.70957797584024</v>
       </c>
       <c r="K12">
         <v>20.72076492657741</v>
@@ -833,10 +833,10 @@
         <v>29.44457254268483</v>
       </c>
       <c r="C13">
-        <v>16.57802554442328</v>
+        <v>16.57802554442337</v>
       </c>
       <c r="D13">
-        <v>9.800767994926517</v>
+        <v>9.800767994926478</v>
       </c>
       <c r="E13">
         <v>19.11081612880519</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.6411864459896</v>
+        <v>83.64118644598999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24.62096626206554</v>
+        <v>24.62096626206556</v>
       </c>
       <c r="K13">
-        <v>20.64889905798275</v>
+        <v>20.6488990579828</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.09813301191647</v>
+        <v>29.0981330119168</v>
       </c>
       <c r="C14">
-        <v>16.3747849861015</v>
+        <v>16.37478498610176</v>
       </c>
       <c r="D14">
-        <v>9.692839619116199</v>
+        <v>9.692839619116187</v>
       </c>
       <c r="E14">
-        <v>18.89540084923808</v>
+        <v>18.89540084923823</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.78373657043966</v>
+        <v>82.78373657044084</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>24.33232958468602</v>
+        <v>24.33232958468633</v>
       </c>
       <c r="K14">
-        <v>20.41470941862394</v>
+        <v>20.41470941862412</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.88615903054195</v>
+        <v>28.88615903054215</v>
       </c>
       <c r="C15">
-        <v>16.25063485780645</v>
+        <v>16.25063485780634</v>
       </c>
       <c r="D15">
-        <v>9.626714297840454</v>
+        <v>9.626714297840429</v>
       </c>
       <c r="E15">
-        <v>18.76349286727946</v>
+        <v>18.76349286727947</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.25895885236643</v>
+        <v>82.25895885236687</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.15575921226949</v>
+        <v>24.15575921226963</v>
       </c>
       <c r="K15">
-        <v>20.27137173730726</v>
+        <v>20.27137173730724</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67331269414803</v>
+        <v>27.67331269414801</v>
       </c>
       <c r="C16">
-        <v>15.54320930684887</v>
+        <v>15.54320930684878</v>
       </c>
       <c r="D16">
-        <v>9.24710330364622</v>
+        <v>9.247103303646247</v>
       </c>
       <c r="E16">
-        <v>18.00726271564023</v>
+        <v>18.00726271564011</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.25494177005292</v>
+        <v>79.25494177005234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>23.14596893417772</v>
       </c>
       <c r="K16">
-        <v>19.45056216006821</v>
+        <v>19.45056216006811</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.92935198263388</v>
+        <v>26.92935198263398</v>
       </c>
       <c r="C17">
-        <v>15.1116534423739</v>
+        <v>15.11165344237388</v>
       </c>
       <c r="D17">
-        <v>9.013202871290588</v>
+        <v>9.013202871290616</v>
       </c>
       <c r="E17">
-        <v>17.54213869719208</v>
+        <v>17.54213869719203</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.41168878284103</v>
+        <v>77.41168878284127</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.5269324347166</v>
+        <v>22.52693243471664</v>
       </c>
       <c r="K17">
-        <v>18.94648937504387</v>
+        <v>18.94648937504383</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50090175066176</v>
+        <v>26.50090175066151</v>
       </c>
       <c r="C18">
-        <v>14.86390861640811</v>
+        <v>14.863908616408</v>
       </c>
       <c r="D18">
-        <v>8.878143386509606</v>
+        <v>8.87814338650972</v>
       </c>
       <c r="E18">
-        <v>17.27384204933954</v>
+        <v>17.27384204933946</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.35018735761166</v>
+        <v>76.35018735761111</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.1705376276193</v>
+        <v>22.17053762761909</v>
       </c>
       <c r="K18">
-        <v>18.65598206471548</v>
+        <v>18.6559820647154</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.35569326113703</v>
+        <v>26.35569326113701</v>
       </c>
       <c r="C19">
-        <v>14.78007219720289</v>
+        <v>14.7800721972029</v>
       </c>
       <c r="D19">
-        <v>8.832311200300701</v>
+        <v>8.832311200300651</v>
       </c>
       <c r="E19">
-        <v>17.18284100345284</v>
+        <v>17.18284100345279</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.99045681286871</v>
+        <v>75.99045681286835</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.0497666853744</v>
+        <v>22.04976668537435</v>
       </c>
       <c r="K19">
         <v>18.55748915764376</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00859214201382</v>
+        <v>27.00859214201365</v>
       </c>
       <c r="C20">
         <v>15.15753544311726</v>
       </c>
       <c r="D20">
-        <v>9.038153259821106</v>
+        <v>9.038153259821135</v>
       </c>
       <c r="E20">
-        <v>17.59172471754478</v>
+        <v>17.59172471754475</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.60801763245328</v>
+        <v>77.6080176324524</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.59285474341836</v>
+        <v>22.59285474341826</v>
       </c>
       <c r="K20">
-        <v>19.00020059553345</v>
+        <v>19.00020059553339</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.19983853925959</v>
+        <v>29.19983853925962</v>
       </c>
       <c r="C21">
-        <v>16.43440764630953</v>
+        <v>16.43440764630968</v>
       </c>
       <c r="D21">
-        <v>9.72454306157567</v>
+        <v>9.724543061575739</v>
       </c>
       <c r="E21">
-        <v>18.95866280254385</v>
+        <v>18.95866280254387</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.03549100909051</v>
+        <v>83.03549100909102</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.41705802554177</v>
+        <v>24.41705802554184</v>
       </c>
       <c r="K21">
-        <v>20.48347084226702</v>
+        <v>20.48347084226707</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.64064739234938</v>
+        <v>30.64064739234952</v>
       </c>
       <c r="C22">
-        <v>17.28299643724932</v>
+        <v>17.28299643724911</v>
       </c>
       <c r="D22">
-        <v>10.17199850173499</v>
+        <v>10.17199850173503</v>
       </c>
       <c r="E22">
-        <v>19.85291495647495</v>
+        <v>19.85291495647505</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.59884877695687</v>
+        <v>86.5988487769575</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.61808065220625</v>
+        <v>25.61808065220631</v>
       </c>
       <c r="K22">
-        <v>21.45674090344324</v>
+        <v>21.45674090344333</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.87008505998286</v>
+        <v>29.87008505998288</v>
       </c>
       <c r="C23">
-        <v>16.82823336789837</v>
+        <v>16.8282333678986</v>
       </c>
       <c r="D23">
-        <v>9.93308471881468</v>
+        <v>9.93308471881463</v>
       </c>
       <c r="E23">
-        <v>19.37511171570259</v>
+        <v>19.37511171570258</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.69391383379089</v>
+        <v>84.69391383379144</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.97558693787564</v>
+        <v>24.97558693787575</v>
       </c>
       <c r="K23">
-        <v>20.93641676374203</v>
+        <v>20.93641676374215</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97277009695752</v>
+        <v>26.97277009695746</v>
       </c>
       <c r="C24">
-        <v>15.13679115959222</v>
+        <v>15.13679115959204</v>
       </c>
       <c r="D24">
-        <v>9.026875052926558</v>
+        <v>9.026875052926494</v>
       </c>
       <c r="E24">
-        <v>17.56930972885206</v>
+        <v>17.56930972885203</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.51926321132156</v>
+        <v>77.51926321132116</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.5630529504382</v>
+        <v>22.56305295043803</v>
       </c>
       <c r="K24">
-        <v>18.97592005119132</v>
+        <v>18.9759200511913</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.82300259988398</v>
+        <v>23.82300259988417</v>
       </c>
       <c r="C25">
-        <v>13.32770305132355</v>
+        <v>13.32770305132359</v>
       </c>
       <c r="D25">
-        <v>8.028236582784242</v>
+        <v>8.028236582784293</v>
       </c>
       <c r="E25">
-        <v>15.58983646379594</v>
+        <v>15.58983646379591</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.72325675831425</v>
+        <v>69.72325675831482</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.94435330609596</v>
+        <v>19.94435330609614</v>
       </c>
       <c r="K25">
-        <v>16.83656485806131</v>
+        <v>16.83656485806133</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.4328795244278</v>
+        <v>21.42897721678667</v>
       </c>
       <c r="C2">
-        <v>11.97262691632809</v>
+        <v>11.96739391176347</v>
       </c>
       <c r="D2">
-        <v>7.261425576061127</v>
+        <v>7.26087958671808</v>
       </c>
       <c r="E2">
-        <v>14.07634732588031</v>
+        <v>14.07565215739766</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.83667176775554</v>
+        <v>63.2010692681368</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.82300852702022</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.95820351541639</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.20670696090044</v>
+        <v>17.95370571514336</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.20508852963477</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75119309411095</v>
+        <v>19.74835993224129</v>
       </c>
       <c r="C3">
-        <v>11.02693374953344</v>
+        <v>11.02289316383799</v>
       </c>
       <c r="D3">
-        <v>6.717231250456441</v>
+        <v>6.7168385696772</v>
       </c>
       <c r="E3">
-        <v>13.00529855934367</v>
+        <v>13.00481749127972</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.72515837468956</v>
+        <v>58.92577695221107</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.71476891427437</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.56019944540476</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.05599887592313</v>
+        <v>16.55679294548921</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.05480386356123</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68367449449895</v>
+        <v>18.68143159047409</v>
       </c>
       <c r="C4">
-        <v>10.42944241985027</v>
+        <v>10.42609235879314</v>
       </c>
       <c r="D4">
-        <v>6.369724210355493</v>
+        <v>6.369413946924486</v>
       </c>
       <c r="E4">
-        <v>12.33343340037495</v>
+        <v>12.33279722493596</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.13407887302868</v>
+        <v>56.22186800118784</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.12574132243048</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.67209178484125</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.32357581844297</v>
+        <v>15.66930534256559</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.32261340789293</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23931775216397</v>
+        <v>18.23730121265842</v>
       </c>
       <c r="C5">
-        <v>10.1813035528888</v>
+        <v>10.17822679290573</v>
       </c>
       <c r="D5">
-        <v>6.225877171767137</v>
+        <v>6.225677583881646</v>
       </c>
       <c r="E5">
-        <v>12.08143685830643</v>
+        <v>12.08085469092965</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.06086106472738</v>
+        <v>55.09941638888294</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.05337787928455</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.3021852876347</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.01820117635535</v>
+        <v>15.29964139424124</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.017328066815</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16495471703847</v>
+        <v>18.16297497041328</v>
       </c>
       <c r="C6">
-        <v>10.13980771271919</v>
+        <v>10.13677590687443</v>
       </c>
       <c r="D6">
-        <v>6.205407210212889</v>
+        <v>6.205211920741056</v>
       </c>
       <c r="E6">
-        <v>12.03935544927028</v>
+        <v>12.03878209467568</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.88159599207103</v>
+        <v>54.91177422873733</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.87425598284965</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.24026574203617</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.96706615480679</v>
+        <v>15.2377615742561</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.96620757789705</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67772019101407</v>
+        <v>18.67548039435925</v>
       </c>
       <c r="C7">
-        <v>10.42611530528568</v>
+        <v>10.42276896000068</v>
       </c>
       <c r="D7">
-        <v>6.367781314264242</v>
+        <v>6.367471480577907</v>
       </c>
       <c r="E7">
-        <v>12.33005077139383</v>
+        <v>12.32941533530819</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.11967581102091</v>
+        <v>56.20681436969686</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.11134969941405</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.66713610884128</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.31948588154788</v>
+        <v>15.66435297580122</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.31852469591204</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.85993130227516</v>
+        <v>20.8564130703021</v>
       </c>
       <c r="C8">
-        <v>11.64977141716353</v>
+        <v>11.64495977199113</v>
       </c>
       <c r="D8">
-        <v>7.076457166132258</v>
+        <v>7.075966842602542</v>
       </c>
       <c r="E8">
-        <v>13.71203133906979</v>
+        <v>13.71141494712019</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.43239187476166</v>
+        <v>61.74276744762636</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.4198536575607</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.48200589801026</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.81505842367558</v>
+        <v>17.4778963946004</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>14.81359260927096</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89225335147269</v>
+        <v>24.88554980861405</v>
       </c>
       <c r="C9">
-        <v>13.93864971078576</v>
+        <v>13.93049702479621</v>
       </c>
       <c r="D9">
-        <v>8.368772899613997</v>
+        <v>8.367802450915457</v>
       </c>
       <c r="E9">
-        <v>16.26370715802848</v>
+        <v>16.26238204839901</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.36689919353118</v>
+        <v>72.02444134552471</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.3460263751561</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.83301633451067</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.56382402527024</v>
+        <v>20.8257643361412</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.5610677337814</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75816982091801</v>
+        <v>27.74840629923171</v>
       </c>
       <c r="C10">
-        <v>15.59254603655432</v>
+        <v>15.58139113381641</v>
       </c>
       <c r="D10">
-        <v>9.273732136593532</v>
+        <v>9.272266266193583</v>
       </c>
       <c r="E10">
-        <v>18.06025505777975</v>
+        <v>18.0581482149725</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.46517267831769</v>
+        <v>79.33071564106939</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.43740659614245</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.2165938253541</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.50802853332409</v>
+        <v>23.20642109982162</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>19.50397459302756</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.05758488231339</v>
+        <v>29.04616321078166</v>
       </c>
       <c r="C11">
-        <v>16.3510245279507</v>
+        <v>16.33829409268386</v>
       </c>
       <c r="D11">
-        <v>9.680195761872811</v>
+        <v>9.678449895933722</v>
       </c>
       <c r="E11">
-        <v>18.87017444709912</v>
+        <v>18.86760971392392</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.68336019809793</v>
+        <v>82.63483251801645</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>82.65205255484055</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24.29855166250778</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.38729328488457</v>
+        <v>24.28681817195167</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.38251305444972</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.55091167685945</v>
+        <v>29.53880962884342</v>
       </c>
       <c r="C12">
-        <v>16.64049437721977</v>
+        <v>16.62712561368492</v>
       </c>
       <c r="D12">
-        <v>9.83386054186993</v>
+        <v>9.831997706805652</v>
       </c>
       <c r="E12">
-        <v>19.1768955223982</v>
+        <v>19.17413663054931</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.90431902111438</v>
+        <v>83.88719735215359</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.88719735215366</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.70957797584024</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.72076492657741</v>
+        <v>24.69720735833895</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.71568222692914</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.44457254268483</v>
+        <v>29.43261965057675</v>
       </c>
       <c r="C13">
-        <v>16.57802554442337</v>
+        <v>16.56479634602367</v>
       </c>
       <c r="D13">
-        <v>9.800767994926478</v>
+        <v>9.798930901487376</v>
       </c>
       <c r="E13">
-        <v>19.11081612880519</v>
+        <v>19.10810010217222</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.64118644598999</v>
+        <v>83.61734953202044</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>83.61734953202038</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24.62096626206556</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.6488990579828</v>
+        <v>24.60873517149765</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.64388288396358</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.0981330119168</v>
+        <v>29.08665651953975</v>
       </c>
       <c r="C14">
-        <v>16.37478498610176</v>
+        <v>16.36200295384147</v>
       </c>
       <c r="D14">
-        <v>9.692839619116187</v>
+        <v>9.691084371738622</v>
       </c>
       <c r="E14">
-        <v>18.89540084923823</v>
+        <v>18.89282060306484</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.78373657044084</v>
+        <v>82.73781474709651</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>82.75231332021582</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>24.33232958468633</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.41470941862412</v>
+        <v>24.32054469283543</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>20.40990491121236</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.88615903054215</v>
+        <v>28.8749669925239</v>
       </c>
       <c r="C15">
-        <v>16.25063485780634</v>
+        <v>16.23812087537439</v>
       </c>
       <c r="D15">
-        <v>9.626714297840429</v>
+        <v>9.625007644918371</v>
       </c>
       <c r="E15">
-        <v>18.76349286727947</v>
+        <v>18.76099286109299</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.25895885236687</v>
+        <v>82.19936514682098</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>82.22813637447989</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.15575921226963</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.27137173730724</v>
+        <v>24.14424116094716</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20.26669301690815</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67331269414801</v>
+        <v>27.66365109173545</v>
       </c>
       <c r="C16">
-        <v>15.54320930684878</v>
+        <v>15.5321522587357</v>
       </c>
       <c r="D16">
-        <v>9.247103303646247</v>
+        <v>9.245654396403873</v>
       </c>
       <c r="E16">
-        <v>18.00726271564011</v>
+        <v>18.00518327776533</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.25494177005234</v>
+        <v>79.11470418410948</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>79.22739667302478</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.14596893417772</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.45056216006811</v>
+        <v>23.13589256041575</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>19.44655234611645</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.92935198263398</v>
+        <v>26.92055262424191</v>
       </c>
       <c r="C17">
-        <v>15.11165344237388</v>
+        <v>15.10142952121963</v>
       </c>
       <c r="D17">
-        <v>9.013202871290616</v>
+        <v>9.011896261460786</v>
       </c>
       <c r="E17">
-        <v>17.54213869719203</v>
+        <v>17.54028750249359</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.41168878284127</v>
+        <v>77.2198368317419</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.38603239016342</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.52693243471664</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.94648937504383</v>
+        <v>22.51767343423644</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>18.94285042000512</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50090175066151</v>
+        <v>26.49257438356389</v>
       </c>
       <c r="C18">
-        <v>14.863908616408</v>
+        <v>14.85414502930359</v>
       </c>
       <c r="D18">
-        <v>8.87814338650972</v>
+        <v>8.876913721323879</v>
       </c>
       <c r="E18">
-        <v>17.27384204933946</v>
+        <v>17.27211298299283</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.35018735761111</v>
+        <v>76.12782355008434</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.32558138767244</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.17053762761909</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.6559820647154</v>
+        <v>22.16172789606015</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>18.65254423457559</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.35569326113701</v>
+        <v>26.34752193590966</v>
       </c>
       <c r="C19">
-        <v>14.7800721972029</v>
+        <v>14.77046151645105</v>
       </c>
       <c r="D19">
-        <v>8.832311200300651</v>
+        <v>8.831106820432929</v>
       </c>
       <c r="E19">
-        <v>17.18284100345279</v>
+        <v>17.18115186169687</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.99045681286835</v>
+        <v>75.75761697195183</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.96620106753798</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.04976668537435</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.55748915764376</v>
+        <v>22.04110579720905</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>18.55411752332932</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00859214201365</v>
+        <v>26.99970356030603</v>
       </c>
       <c r="C20">
-        <v>15.15753544311726</v>
+        <v>15.14722485583986</v>
       </c>
       <c r="D20">
-        <v>9.038153259821135</v>
+        <v>9.03683202790228</v>
       </c>
       <c r="E20">
-        <v>17.59172471754475</v>
+        <v>17.58985020904506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.6080176324524</v>
+        <v>77.42174461126837</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.58216408162102</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.59285474341826</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.00020059553339</v>
+        <v>22.58351096810061</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>18.99652346992994</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.19983853925962</v>
+        <v>29.18822368348988</v>
       </c>
       <c r="C21">
-        <v>16.43440764630968</v>
+        <v>16.4214955176388</v>
       </c>
       <c r="D21">
-        <v>9.724543061575739</v>
+        <v>9.722764102146906</v>
       </c>
       <c r="E21">
-        <v>18.95866280254387</v>
+        <v>18.95604329969625</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.03549100909102</v>
+        <v>82.99608591412068</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>83.00377633650228</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.41705802554184</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.48347084226707</v>
+        <v>24.40514345294574</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>20.47860498785492</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.64064739234952</v>
+        <v>30.62693339831496</v>
       </c>
       <c r="C22">
-        <v>17.28299643724911</v>
+        <v>17.26813171717832</v>
       </c>
       <c r="D22">
-        <v>10.17199850173503</v>
+        <v>10.16985408266738</v>
       </c>
       <c r="E22">
-        <v>19.85291495647505</v>
+        <v>19.84968244159009</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.5988487769575</v>
+        <v>86.64887512642578</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>86.64887512647763</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.61808065220631</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.45674090344333</v>
+        <v>25.60420694979073</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>21.45093168596374</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.87008505998288</v>
+        <v>29.85752685867126</v>
       </c>
       <c r="C23">
-        <v>16.8282333678986</v>
+        <v>16.81443902919578</v>
       </c>
       <c r="D23">
-        <v>9.93308471881463</v>
+        <v>9.931142822632779</v>
       </c>
       <c r="E23">
-        <v>19.37511171570258</v>
+        <v>19.37222070414452</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.69391383379144</v>
+        <v>84.69677111325706</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>84.69677111325747</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.97558693787575</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.93641676374215</v>
+        <v>24.96279010400243</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.93112986779978</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97277009695746</v>
+        <v>26.96392192602358</v>
       </c>
       <c r="C24">
-        <v>15.13679115959204</v>
+        <v>15.12651981133259</v>
       </c>
       <c r="D24">
-        <v>9.026875052926494</v>
+        <v>9.025560446591383</v>
       </c>
       <c r="E24">
-        <v>17.56930972885203</v>
+        <v>17.56744578842407</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.51926321132116</v>
+        <v>77.3304705751442</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.49349890394032</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.56305295043803</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.9759200511913</v>
+        <v>22.55374756526246</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>18.97226021960446</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.82300259988417</v>
+        <v>23.81725907138704</v>
       </c>
       <c r="C25">
-        <v>13.32770305132359</v>
+        <v>13.32052675109507</v>
       </c>
       <c r="D25">
-        <v>8.028236582784293</v>
+        <v>8.027415057504136</v>
       </c>
       <c r="E25">
-        <v>15.58983646379591</v>
+        <v>15.58873746438905</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.72325675831482</v>
+        <v>69.29569075728725</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.70471068039721</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.94435330609614</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.83656485806133</v>
+        <v>19.93803333059162</v>
       </c>
       <c r="L25">
+        <v>16.83420382048841</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.42897721678667</v>
+        <v>33.71260989684369</v>
       </c>
       <c r="C2">
-        <v>11.96739391176347</v>
+        <v>26.73891300640317</v>
       </c>
       <c r="D2">
-        <v>7.26087958671808</v>
+        <v>9.020808545293248</v>
       </c>
       <c r="E2">
-        <v>14.07565215739766</v>
+        <v>7.703635623845067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.2010692681368</v>
+        <v>2.10586964223101</v>
       </c>
       <c r="H2">
-        <v>63.82300852702022</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.414234543061609</v>
       </c>
       <c r="K2">
-        <v>17.95370571514336</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.20508852963477</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>23.64038462128625</v>
+      </c>
+      <c r="N2">
+        <v>21.31248240174845</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74835993224129</v>
+        <v>31.57485462582649</v>
       </c>
       <c r="C3">
-        <v>11.02289316383799</v>
+        <v>24.96890075291736</v>
       </c>
       <c r="D3">
-        <v>6.7168385696772</v>
+        <v>8.787914496333192</v>
       </c>
       <c r="E3">
-        <v>13.00481749127972</v>
+        <v>7.666911076257279</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.92577695221107</v>
+        <v>2.127489922705401</v>
       </c>
       <c r="H3">
-        <v>59.71476891427437</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.459751746254037</v>
       </c>
       <c r="K3">
-        <v>16.55679294548921</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.05480386356123</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>22.49576602780414</v>
+      </c>
+      <c r="N3">
+        <v>20.96604240333389</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68143159047409</v>
+        <v>30.24699043203998</v>
       </c>
       <c r="C4">
-        <v>10.42609235879314</v>
+        <v>23.86752216614849</v>
       </c>
       <c r="D4">
-        <v>6.369413946924486</v>
+        <v>8.65296970343133</v>
       </c>
       <c r="E4">
-        <v>12.33279722493596</v>
+        <v>7.65035036280212</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.22186800118784</v>
+        <v>2.140809555419906</v>
       </c>
       <c r="H4">
-        <v>57.12574132243048</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.487950966663472</v>
       </c>
       <c r="K4">
-        <v>15.66930534256559</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.32261340789293</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>21.80132735252595</v>
+      </c>
+      <c r="N4">
+        <v>20.76044469410658</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23730121265842</v>
+        <v>29.70183798483995</v>
       </c>
       <c r="C5">
-        <v>10.17822679290573</v>
+        <v>23.41479309513919</v>
       </c>
       <c r="D5">
-        <v>6.225677583881646</v>
+        <v>8.599886822670722</v>
       </c>
       <c r="E5">
-        <v>12.08085469092965</v>
+        <v>7.645009530283625</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.09941638888294</v>
+        <v>2.146262781426422</v>
       </c>
       <c r="H5">
-        <v>56.05337787928455</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.499531624568162</v>
       </c>
       <c r="K5">
-        <v>15.29964139424124</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.017328066815</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21.52032791414542</v>
+      </c>
+      <c r="N5">
+        <v>20.6782829396873</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16297497041328</v>
+        <v>29.61107069490474</v>
       </c>
       <c r="C6">
-        <v>10.13677590687443</v>
+        <v>23.33937840195388</v>
       </c>
       <c r="D6">
-        <v>6.205211920741056</v>
+        <v>8.591184632655786</v>
       </c>
       <c r="E6">
-        <v>12.03878209467568</v>
+        <v>7.644205062235061</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.91177422873733</v>
+        <v>2.147170191933045</v>
       </c>
       <c r="H6">
-        <v>55.87425598284965</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.501460666205257</v>
       </c>
       <c r="K6">
-        <v>15.2377615742561</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.96620757789705</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21.47378717948433</v>
+      </c>
+      <c r="N6">
+        <v>20.66473348533215</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67548039435925</v>
+        <v>30.23965475241003</v>
       </c>
       <c r="C7">
-        <v>10.42276896000068</v>
+        <v>23.86143250527799</v>
       </c>
       <c r="D7">
-        <v>6.367471480577907</v>
+        <v>8.652246223691408</v>
       </c>
       <c r="E7">
-        <v>12.32941533530819</v>
+        <v>7.650272755689945</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.20681436969686</v>
+        <v>2.140882979642015</v>
       </c>
       <c r="H7">
-        <v>57.11134969941405</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.488106754374378</v>
       </c>
       <c r="K7">
-        <v>15.66435297580122</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.31852469591204</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21.797529706081</v>
+      </c>
+      <c r="N7">
+        <v>20.75933027335989</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.8564130703021</v>
+        <v>32.97848868369375</v>
       </c>
       <c r="C8">
-        <v>11.64495977199113</v>
+        <v>26.13143132090777</v>
       </c>
       <c r="D8">
-        <v>7.075966842602542</v>
+        <v>8.938758345286899</v>
       </c>
       <c r="E8">
-        <v>13.71141494712019</v>
+        <v>7.68966730266028</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.74276744762636</v>
+        <v>2.113324244095763</v>
       </c>
       <c r="H8">
-        <v>62.4198536575607</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.429893575807544</v>
       </c>
       <c r="K8">
-        <v>17.4778963946004</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.81359260927096</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>23.24387883522106</v>
+      </c>
+      <c r="N8">
+        <v>21.19144214474901</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.88554980861405</v>
+        <v>38.28231658162871</v>
       </c>
       <c r="C9">
-        <v>13.93049702479621</v>
+        <v>30.48992540352652</v>
       </c>
       <c r="D9">
-        <v>8.367802450915457</v>
+        <v>9.571198948236454</v>
       </c>
       <c r="E9">
-        <v>16.26238204839901</v>
+        <v>7.819620829728605</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.02444134552471</v>
+        <v>2.058858508813998</v>
       </c>
       <c r="H9">
-        <v>72.3460263751561</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.316312894446779</v>
       </c>
       <c r="K9">
-        <v>20.8257643361412</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.5610677337814</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>26.15921795883018</v>
+      </c>
+      <c r="N9">
+        <v>22.10472117555695</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.74840629923171</v>
+        <v>42.42658196140422</v>
       </c>
       <c r="C10">
-        <v>15.58139113381641</v>
+        <v>33.73558733689396</v>
       </c>
       <c r="D10">
-        <v>9.272266266193583</v>
+        <v>10.09157431720258</v>
       </c>
       <c r="E10">
-        <v>18.0581482149725</v>
+        <v>7.956131575678752</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.33071564106939</v>
+        <v>2.017195072023582</v>
       </c>
       <c r="H10">
-        <v>79.43740659614245</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.230705017394578</v>
       </c>
       <c r="K10">
-        <v>23.20642109982162</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.50397459302756</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>28.38225297232986</v>
+      </c>
+      <c r="N10">
+        <v>22.8330768360142</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.04616321078166</v>
+        <v>44.32127177498975</v>
       </c>
       <c r="C11">
-        <v>16.33829409268386</v>
+        <v>35.25928668532162</v>
       </c>
       <c r="D11">
-        <v>9.678449895933722</v>
+        <v>10.34469821176332</v>
       </c>
       <c r="E11">
-        <v>18.86760971392392</v>
+        <v>8.029843009211586</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.63483251801645</v>
+        <v>1.997444561782813</v>
       </c>
       <c r="H11">
-        <v>82.65205255484055</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.190508570067975</v>
       </c>
       <c r="K11">
-        <v>24.28681817195167</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.38251305444972</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>29.63663864832308</v>
+      </c>
+      <c r="N11">
+        <v>23.18243326432937</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.53880962884342</v>
+        <v>45.04313503139844</v>
       </c>
       <c r="C12">
-        <v>16.62712561368492</v>
+        <v>35.84074711508533</v>
       </c>
       <c r="D12">
-        <v>9.831997706805652</v>
+        <v>10.44343653632081</v>
       </c>
       <c r="E12">
-        <v>19.17413663054931</v>
+        <v>8.059734623517313</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.88719735215359</v>
+        <v>1.989799230467461</v>
       </c>
       <c r="H12">
-        <v>83.88719735215366</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.175016172987497</v>
       </c>
       <c r="K12">
-        <v>24.69720735833895</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.71568222692914</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>30.12964526065723</v>
+      </c>
+      <c r="N12">
+        <v>23.31797923455515</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.43261965057675</v>
+        <v>44.8874138982693</v>
       </c>
       <c r="C13">
-        <v>16.56479634602367</v>
+        <v>35.71526900791536</v>
       </c>
       <c r="D13">
-        <v>9.798930901487376</v>
+        <v>10.42203261886546</v>
       </c>
       <c r="E13">
-        <v>19.10810010217222</v>
+        <v>8.053202963319642</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.61734953202044</v>
+        <v>1.991454189541422</v>
       </c>
       <c r="H13">
-        <v>83.61734953202038</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.178366544413628</v>
       </c>
       <c r="K13">
-        <v>24.60873517149765</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.64388288396358</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>30.0233122390001</v>
+      </c>
+      <c r="N13">
+        <v>23.28862935354692</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.08665651953975</v>
+        <v>44.38055082756519</v>
       </c>
       <c r="C14">
-        <v>16.36200295384147</v>
+        <v>35.30701604023631</v>
       </c>
       <c r="D14">
-        <v>9.691084371738622</v>
+        <v>10.3527599260577</v>
       </c>
       <c r="E14">
-        <v>18.89282060306484</v>
+        <v>8.032260442752566</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.73781474709651</v>
+        <v>1.996819263612241</v>
       </c>
       <c r="H14">
-        <v>82.75231332021582</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.18924005274611</v>
       </c>
       <c r="K14">
-        <v>24.32054469283543</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.40990491121236</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>29.67713268440732</v>
+      </c>
+      <c r="N14">
+        <v>23.19351494058052</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.8749669925239</v>
+        <v>44.07076160871968</v>
       </c>
       <c r="C15">
-        <v>16.23812087537439</v>
+        <v>35.05762391913493</v>
       </c>
       <c r="D15">
-        <v>9.625007644918371</v>
+        <v>10.31072311877233</v>
       </c>
       <c r="E15">
-        <v>18.76099286109299</v>
+        <v>8.019701006784841</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.19936514682098</v>
+        <v>2.000082060625302</v>
       </c>
       <c r="H15">
-        <v>82.22813637447989</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.195861936734774</v>
       </c>
       <c r="K15">
-        <v>24.14424116094716</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.26669301690815</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>29.4654954315028</v>
+      </c>
+      <c r="N15">
+        <v>23.13570156623201</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.66365109173545</v>
+        <v>42.30318544634578</v>
       </c>
       <c r="C16">
-        <v>15.5321522587357</v>
+        <v>33.63647419530255</v>
       </c>
       <c r="D16">
-        <v>9.245654396403873</v>
+        <v>10.07540308889245</v>
       </c>
       <c r="E16">
-        <v>18.00518327776533</v>
+        <v>7.951572397288705</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.11470418410948</v>
+        <v>2.018465719362253</v>
       </c>
       <c r="H16">
-        <v>79.22739667302478</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.233299597570841</v>
       </c>
       <c r="K16">
-        <v>23.13589256041575</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.44655234611645</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>28.31489726782879</v>
+      </c>
+      <c r="N16">
+        <v>22.81065991275569</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.92055262424191</v>
+        <v>41.22310343150677</v>
       </c>
       <c r="C17">
-        <v>15.10142952121963</v>
+        <v>32.76956511151592</v>
       </c>
       <c r="D17">
-        <v>9.011896261460786</v>
+        <v>9.935563609985222</v>
       </c>
       <c r="E17">
-        <v>17.54028750249359</v>
+        <v>7.912944691164586</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.2198368317419</v>
+        <v>2.029507321679543</v>
       </c>
       <c r="H17">
-        <v>77.38603239016342</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.255889079666598</v>
       </c>
       <c r="K17">
-        <v>22.51767343423644</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.94285042000512</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>27.72821942678207</v>
+      </c>
+      <c r="N17">
+        <v>22.61628002636476</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.49257438356389</v>
+        <v>40.6025275244527</v>
       </c>
       <c r="C18">
-        <v>14.85414502930359</v>
+        <v>32.27618604809738</v>
       </c>
       <c r="D18">
-        <v>8.876913721323879</v>
+        <v>9.856635345469286</v>
       </c>
       <c r="E18">
-        <v>17.27211298299283</v>
+        <v>7.891797276668782</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.12782355008434</v>
+        <v>2.035786929700509</v>
       </c>
       <c r="H18">
-        <v>76.32558138767244</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.268770741503566</v>
       </c>
       <c r="K18">
-        <v>22.16172789606015</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.65254423457559</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>27.39355665906203</v>
+      </c>
+      <c r="N18">
+        <v>22.50612470957099</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.34752193590966</v>
+        <v>40.3924479167344</v>
       </c>
       <c r="C19">
-        <v>14.77046151645105</v>
+        <v>32.11395762688811</v>
       </c>
       <c r="D19">
-        <v>8.831106820432929</v>
+        <v>9.830156632182165</v>
       </c>
       <c r="E19">
-        <v>17.18115186169687</v>
+        <v>7.884812929176835</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.75761697195183</v>
+        <v>2.037902184252669</v>
       </c>
       <c r="H19">
-        <v>75.96620106753798</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.273115488891046</v>
       </c>
       <c r="K19">
-        <v>22.04110579720905</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.55411752332932</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>27.28068024311737</v>
+      </c>
+      <c r="N19">
+        <v>22.46909405625652</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.99970356030603</v>
+        <v>41.33799310065142</v>
       </c>
       <c r="C20">
-        <v>15.14722485583986</v>
+        <v>32.86172658946105</v>
       </c>
       <c r="D20">
-        <v>9.03683202790228</v>
+        <v>9.950290889554083</v>
       </c>
       <c r="E20">
-        <v>17.58985020904506</v>
+        <v>7.916943959190043</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.42174461126837</v>
+        <v>2.028339619144039</v>
       </c>
       <c r="H20">
-        <v>77.58216408162102</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.253496471732336</v>
       </c>
       <c r="K20">
-        <v>22.58351096810061</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.99652346992994</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>27.79037419080176</v>
+      </c>
+      <c r="N20">
+        <v>22.63679754135729</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.18822368348988</v>
+        <v>44.52928029612636</v>
       </c>
       <c r="C21">
-        <v>16.4214955176388</v>
+        <v>35.42678324163759</v>
       </c>
       <c r="D21">
-        <v>9.722764102146906</v>
+        <v>10.37302350945545</v>
       </c>
       <c r="E21">
-        <v>18.95604329969625</v>
+        <v>8.038355128530746</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.99608591412068</v>
+        <v>1.995248418712255</v>
       </c>
       <c r="H21">
-        <v>83.00377633650228</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.186054458047502</v>
       </c>
       <c r="K21">
-        <v>24.40514345294574</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.47860498785492</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>29.7787241964084</v>
+      </c>
+      <c r="N21">
+        <v>23.22135769214925</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.62693339831496</v>
+        <v>46.64281022467343</v>
       </c>
       <c r="C22">
-        <v>17.26813171717832</v>
+        <v>37.13120192063259</v>
       </c>
       <c r="D22">
-        <v>10.16985408266738</v>
+        <v>10.66652706367971</v>
       </c>
       <c r="E22">
-        <v>19.84968244159009</v>
+        <v>8.129459210990904</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.64887512642578</v>
+        <v>1.97261459854188</v>
       </c>
       <c r="H22">
-        <v>86.64887512647763</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.14033272062548</v>
       </c>
       <c r="K22">
-        <v>25.60420694979073</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.45093168596374</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>31.22141795918099</v>
+      </c>
+      <c r="N22">
+        <v>23.62284946377403</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.85752685867126</v>
+        <v>45.51092643798859</v>
       </c>
       <c r="C23">
-        <v>16.81443902919578</v>
+        <v>36.21783728439677</v>
       </c>
       <c r="D23">
-        <v>9.931142822632779</v>
+        <v>10.50807338228835</v>
       </c>
       <c r="E23">
-        <v>19.37222070414452</v>
+        <v>8.079630313058216</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.69677111325706</v>
+        <v>1.984808704117496</v>
       </c>
       <c r="H23">
-        <v>84.69677111325747</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.164923932840153</v>
       </c>
       <c r="K23">
-        <v>24.96279010400243</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.93112986779978</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>30.44901324774807</v>
+      </c>
+      <c r="N23">
+        <v>23.40650353333201</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.96392192602358</v>
+        <v>41.2860505179771</v>
       </c>
       <c r="C24">
-        <v>15.12651981133259</v>
+        <v>32.82005806723545</v>
       </c>
       <c r="D24">
-        <v>9.025560446591383</v>
+        <v>9.943628153057238</v>
       </c>
       <c r="E24">
-        <v>17.56744578842407</v>
+        <v>7.915132609856103</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.3304705751442</v>
+        <v>2.028867746731305</v>
       </c>
       <c r="H24">
-        <v>77.49349890394032</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.254578491438398</v>
       </c>
       <c r="K24">
-        <v>22.55374756526246</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.97226021960446</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>27.76226596292983</v>
+      </c>
+      <c r="N24">
+        <v>22.62751664736199</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.81725907138704</v>
+        <v>36.83078442580497</v>
       </c>
       <c r="C25">
-        <v>13.32052675109507</v>
+        <v>29.31654412480054</v>
       </c>
       <c r="D25">
-        <v>8.027415057504136</v>
+        <v>9.391454032558952</v>
       </c>
       <c r="E25">
-        <v>15.58873746438905</v>
+        <v>7.778012771847748</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.29569075728725</v>
+        <v>2.073762085986299</v>
       </c>
       <c r="H25">
-        <v>69.70471068039721</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.347203045319936</v>
       </c>
       <c r="K25">
-        <v>19.93803333059162</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.83420382048841</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>25.35957497817157</v>
+      </c>
+      <c r="N25">
+        <v>21.84908146816295</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.71260989684369</v>
+        <v>23.89813176388392</v>
       </c>
       <c r="C2">
-        <v>26.73891300640317</v>
+        <v>17.31032142052272</v>
       </c>
       <c r="D2">
-        <v>9.020808545293248</v>
+        <v>7.29126705600622</v>
       </c>
       <c r="E2">
-        <v>7.703635623845067</v>
+        <v>10.25342181095516</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.10586964223101</v>
+        <v>49.06354163375759</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.43176813431999</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.414234543061609</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.64038462128625</v>
+        <v>19.41849655544389</v>
       </c>
       <c r="N2">
-        <v>21.31248240174845</v>
+        <v>11.59963302117051</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.57485462582649</v>
+        <v>22.19342337011995</v>
       </c>
       <c r="C3">
-        <v>24.96890075291736</v>
+        <v>16.10903749661509</v>
       </c>
       <c r="D3">
-        <v>8.787914496333192</v>
+        <v>6.767242695600039</v>
       </c>
       <c r="E3">
-        <v>7.666911076257279</v>
+        <v>9.695854962843981</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.127489922705401</v>
+        <v>46.10058982988571</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.94928430759769</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.459751746254037</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.49576602780414</v>
+        <v>18.05734006071064</v>
       </c>
       <c r="N3">
-        <v>20.96604240333389</v>
+        <v>11.85997121492366</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.24699043203998</v>
+        <v>21.09359428146466</v>
       </c>
       <c r="C4">
-        <v>23.86752216614849</v>
+        <v>15.3349260985776</v>
       </c>
       <c r="D4">
-        <v>8.65296970343133</v>
+        <v>6.429707060395365</v>
       </c>
       <c r="E4">
-        <v>7.65035036280212</v>
+        <v>9.350746188646733</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.140809555419906</v>
+        <v>44.25348079630849</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.66068693806094</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.487950966663472</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.80132735252595</v>
+        <v>17.18115585450759</v>
       </c>
       <c r="N4">
-        <v>20.76044469410658</v>
+        <v>12.0232597622092</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.70183798483995</v>
+        <v>20.63181810143531</v>
       </c>
       <c r="C5">
-        <v>23.41479309513919</v>
+        <v>15.01013045087555</v>
       </c>
       <c r="D5">
-        <v>8.599886822670722</v>
+        <v>6.288114715566033</v>
       </c>
       <c r="E5">
-        <v>7.645009530283625</v>
+        <v>9.209513346541657</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.146262781426422</v>
+        <v>43.49424659121615</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.54504242041923</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.499531624568162</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.52032791414542</v>
+        <v>16.81374815709049</v>
       </c>
       <c r="N5">
-        <v>20.6782829396873</v>
+        <v>12.09067851193676</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.61107069490474</v>
+        <v>20.55431355414738</v>
       </c>
       <c r="C6">
-        <v>23.33937840195388</v>
+        <v>14.95563005012736</v>
       </c>
       <c r="D6">
-        <v>8.591184632655786</v>
+        <v>6.264357068916723</v>
       </c>
       <c r="E6">
-        <v>7.644205062235061</v>
+        <v>9.186029115045471</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.147170191933045</v>
+        <v>43.36780045680572</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.52595947509658</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.501460666205257</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.47378717948433</v>
+        <v>16.75210972519474</v>
       </c>
       <c r="N6">
-        <v>20.66473348533215</v>
+        <v>12.10192674707419</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.23965475241003</v>
+        <v>21.08742190865996</v>
       </c>
       <c r="C7">
-        <v>23.86143250527799</v>
+        <v>15.33058379989233</v>
       </c>
       <c r="D7">
-        <v>8.652246223691408</v>
+        <v>6.427813965904894</v>
       </c>
       <c r="E7">
-        <v>7.650272755689945</v>
+        <v>9.348843742002245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.140882979642015</v>
+        <v>44.24326712108305</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.65911931757088</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.488106754374378</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.797529706081</v>
+        <v>17.17624303337136</v>
       </c>
       <c r="N7">
-        <v>20.75933027335989</v>
+        <v>12.02416542430295</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.97848868369375</v>
+        <v>23.32123439025448</v>
       </c>
       <c r="C8">
-        <v>26.13143132090777</v>
+        <v>16.903599205621</v>
       </c>
       <c r="D8">
-        <v>8.938758345286899</v>
+        <v>7.113812274915459</v>
       </c>
       <c r="E8">
-        <v>7.68966730266028</v>
+        <v>10.06179170942332</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.113324244095763</v>
+        <v>48.0479178208049</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13.26383885095728</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.429893575807544</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.24387883522106</v>
+        <v>18.95744121233396</v>
       </c>
       <c r="N8">
-        <v>21.19144214474901</v>
+        <v>11.68869019437851</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>38.28231658162871</v>
+        <v>27.29127076787272</v>
       </c>
       <c r="C9">
-        <v>30.48992540352652</v>
+        <v>19.70643121609749</v>
       </c>
       <c r="D9">
-        <v>9.571198948236454</v>
+        <v>8.337506324864432</v>
       </c>
       <c r="E9">
-        <v>7.819620829728605</v>
+        <v>11.43579711355879</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.058858508813998</v>
+        <v>55.27791470399559</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.50958965068148</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.316312894446779</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.15921795883018</v>
+        <v>22.13911197225369</v>
       </c>
       <c r="N9">
-        <v>22.10472117555695</v>
+        <v>11.05775624985836</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.42658196140422</v>
+        <v>29.97487936812919</v>
       </c>
       <c r="C10">
-        <v>33.73558733689396</v>
+        <v>21.60630790733351</v>
       </c>
       <c r="D10">
-        <v>10.09157431720258</v>
+        <v>9.168100756545758</v>
       </c>
       <c r="E10">
-        <v>7.956131575678752</v>
+        <v>12.52477216684793</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.017195072023582</v>
+        <v>60.47217886675509</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.46212391984672</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.230705017394578</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.38225297232986</v>
+        <v>24.30187325876477</v>
       </c>
       <c r="N10">
-        <v>22.8330768360142</v>
+        <v>10.61058949278231</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44.32127177498975</v>
+        <v>31.1494037385893</v>
       </c>
       <c r="C11">
-        <v>35.25928668532162</v>
+        <v>22.43923789085236</v>
       </c>
       <c r="D11">
-        <v>10.34469821176332</v>
+        <v>9.532522088452504</v>
       </c>
       <c r="E11">
-        <v>8.029843009211586</v>
+        <v>13.05601096820392</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.997444561782813</v>
+        <v>62.85192908411973</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.90437346954387</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.190508570067975</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>29.63663864832308</v>
+        <v>25.25166850881362</v>
       </c>
       <c r="N11">
-        <v>23.18243326432937</v>
+        <v>10.41091687947993</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>45.04313503139844</v>
+        <v>31.58792326047561</v>
       </c>
       <c r="C12">
-        <v>35.84074711508533</v>
+        <v>22.75045316378524</v>
       </c>
       <c r="D12">
-        <v>10.44343653632081</v>
+        <v>9.668724736697785</v>
       </c>
       <c r="E12">
-        <v>8.059734623517313</v>
+        <v>13.25539127108983</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.989799230467461</v>
+        <v>63.7492521513679</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16.07324869445711</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.175016172987497</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.12964526065723</v>
+        <v>25.60680590567445</v>
       </c>
       <c r="N12">
-        <v>23.31797923455515</v>
+        <v>10.33588339943229</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44.8874138982693</v>
+        <v>31.49375106253479</v>
       </c>
       <c r="C13">
-        <v>35.71526900791536</v>
+        <v>22.68360867566748</v>
       </c>
       <c r="D13">
-        <v>10.42203261886546</v>
+        <v>9.639468605593523</v>
       </c>
       <c r="E13">
-        <v>8.053202963319642</v>
+        <v>13.21252619474586</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.991454189541422</v>
+        <v>63.55615351424668</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>16.03681346109314</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.178366544413628</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.0233122390001</v>
+        <v>25.53051575057282</v>
       </c>
       <c r="N13">
-        <v>23.28862935354692</v>
+        <v>10.35201661994416</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44.38055082756519</v>
+        <v>31.18560369938589</v>
       </c>
       <c r="C14">
-        <v>35.30701604023631</v>
+        <v>22.46492395447575</v>
       </c>
       <c r="D14">
-        <v>10.3527599260577</v>
+        <v>9.54376272283216</v>
       </c>
       <c r="E14">
-        <v>8.032260442752566</v>
+        <v>13.07244834101628</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.996819263612241</v>
+        <v>62.92582406927151</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.9182379139757</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.18924005274611</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>29.67713268440732</v>
+        <v>25.28097436306238</v>
       </c>
       <c r="N14">
-        <v>23.19351494058052</v>
+        <v>10.40473193740258</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44.07076160871968</v>
+        <v>30.99605387811855</v>
       </c>
       <c r="C15">
-        <v>35.05762391913493</v>
+        <v>22.33043654186449</v>
       </c>
       <c r="D15">
-        <v>10.31072311877233</v>
+        <v>9.484910513745234</v>
       </c>
       <c r="E15">
-        <v>8.019701006784841</v>
+        <v>12.98642197676971</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.000082060625302</v>
+        <v>62.5392561175523</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.84579433774423</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.195861936734774</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>29.4654954315028</v>
+        <v>25.12754497699838</v>
       </c>
       <c r="N15">
-        <v>23.13570156623201</v>
+        <v>10.43709843325044</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42.30318544634578</v>
+        <v>29.89722397550106</v>
       </c>
       <c r="C16">
-        <v>33.63647419530255</v>
+        <v>21.55126887005606</v>
       </c>
       <c r="D16">
-        <v>10.07540308889245</v>
+        <v>9.144025986665788</v>
       </c>
       <c r="E16">
-        <v>7.951572397288705</v>
+        <v>12.48978942893019</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.018465719362253</v>
+        <v>60.31607285309219</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.43341083385696</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.233299597570841</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>28.31489726782879</v>
+        <v>24.23914691570372</v>
       </c>
       <c r="N16">
-        <v>22.81065991275569</v>
+        <v>10.62371685326674</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>41.22310343150677</v>
+        <v>29.21155081630483</v>
       </c>
       <c r="C17">
-        <v>32.76956511151592</v>
+        <v>21.06545589722334</v>
       </c>
       <c r="D17">
-        <v>9.935563609985222</v>
+        <v>8.931557257171017</v>
       </c>
       <c r="E17">
-        <v>7.912944691164586</v>
+        <v>12.18165114653519</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.029507321679543</v>
+        <v>58.95861317652498</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>15.18278597414694</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.255889079666598</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>27.72821942678207</v>
+        <v>23.68566723348554</v>
       </c>
       <c r="N17">
-        <v>22.61628002636476</v>
+        <v>10.73918243233141</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40.6025275244527</v>
+        <v>28.81278823363012</v>
       </c>
       <c r="C18">
-        <v>32.27618604809738</v>
+        <v>20.78305908607839</v>
       </c>
       <c r="D18">
-        <v>9.856635345469286</v>
+        <v>8.808078742914287</v>
       </c>
       <c r="E18">
-        <v>7.891797276668782</v>
+        <v>12.00306303005896</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.035786929700509</v>
+        <v>58.18530716904394</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>15.03946445897828</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.268770741503566</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>27.39355665906203</v>
+        <v>23.3640901339579</v>
       </c>
       <c r="N18">
-        <v>22.50612470957099</v>
+        <v>10.80594432267143</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40.3924479167344</v>
+        <v>28.67701002759339</v>
       </c>
       <c r="C19">
-        <v>32.11395762688811</v>
+        <v>20.68692555202169</v>
       </c>
       <c r="D19">
-        <v>9.830156632182165</v>
+        <v>8.766048739849799</v>
       </c>
       <c r="E19">
-        <v>7.884812929176835</v>
+        <v>11.94344284237236</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.037902184252669</v>
+        <v>57.92304965491749</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.99107816569517</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.273115488891046</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>27.28068024311737</v>
+        <v>23.25464445572846</v>
       </c>
       <c r="N19">
-        <v>22.46909405625652</v>
+        <v>10.8286078413718</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41.33799310065142</v>
+        <v>29.28499259433079</v>
       </c>
       <c r="C20">
-        <v>32.86172658946105</v>
+        <v>21.11747680556352</v>
       </c>
       <c r="D20">
-        <v>9.950290889554083</v>
+        <v>8.954305658908279</v>
       </c>
       <c r="E20">
-        <v>7.916943959190043</v>
+        <v>12.21459151650705</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.028339619144039</v>
+        <v>59.10153477813888</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.2093786723982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.253496471732336</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.79037419080176</v>
+        <v>23.744917901734</v>
       </c>
       <c r="N20">
-        <v>22.63679754135729</v>
+        <v>10.72685456880381</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>44.52928029612636</v>
+        <v>31.27628010731993</v>
       </c>
       <c r="C21">
-        <v>35.42678324163759</v>
+        <v>22.52926819370298</v>
       </c>
       <c r="D21">
-        <v>10.37302350945545</v>
+        <v>9.571921443045692</v>
       </c>
       <c r="E21">
-        <v>8.038355128530746</v>
+        <v>13.11363890269875</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.995248418712255</v>
+        <v>63.11106397239698</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.95302709288455</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.186054458047502</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>29.7787241964084</v>
+        <v>25.35439045862563</v>
       </c>
       <c r="N21">
-        <v>23.22135769214925</v>
+        <v>10.38923205469542</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46.64281022467343</v>
+        <v>32.54151568909176</v>
       </c>
       <c r="C22">
-        <v>37.13120192063259</v>
+        <v>23.42766713497582</v>
       </c>
       <c r="D22">
-        <v>10.66652706367971</v>
+        <v>9.965177230869397</v>
       </c>
       <c r="E22">
-        <v>8.129459210990904</v>
+        <v>13.69094339562767</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.97261459854188</v>
+        <v>65.71669276354315</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>16.44732658269963</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.14033272062548</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.22141795918099</v>
+        <v>26.38008245752325</v>
       </c>
       <c r="N22">
-        <v>23.62284946377403</v>
+        <v>10.17198190902306</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>45.51092643798859</v>
+        <v>31.86939835127182</v>
       </c>
       <c r="C23">
-        <v>36.21783728439677</v>
+        <v>22.95028332284254</v>
       </c>
       <c r="D23">
-        <v>10.50807338228835</v>
+        <v>9.756191050977732</v>
       </c>
       <c r="E23">
-        <v>8.079630313058216</v>
+        <v>13.38367013284122</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.984808704117496</v>
+        <v>64.32770219775736</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>16.18269872343726</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.164923932840153</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>30.44901324774807</v>
+        <v>25.83491239054324</v>
       </c>
       <c r="N23">
-        <v>23.40650353333201</v>
+        <v>10.28760167123856</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41.2860505179771</v>
+        <v>29.2518037995891</v>
       </c>
       <c r="C24">
-        <v>32.82005806723545</v>
+        <v>21.09396782037339</v>
       </c>
       <c r="D24">
-        <v>9.943628153057238</v>
+        <v>8.944025250944817</v>
       </c>
       <c r="E24">
-        <v>7.915132609856103</v>
+        <v>12.19970366464438</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.028867746731305</v>
+        <v>59.03692852840278</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>15.19735373581057</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.254578491438398</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.76226596292983</v>
+        <v>23.7181412117291</v>
       </c>
       <c r="N24">
-        <v>22.62751664736199</v>
+        <v>10.73242681752058</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>36.83078442580497</v>
+        <v>26.25955533981953</v>
       </c>
       <c r="C25">
-        <v>29.31654412480054</v>
+        <v>18.97716710426704</v>
       </c>
       <c r="D25">
-        <v>9.391454032558952</v>
+        <v>8.018927931539361</v>
       </c>
       <c r="E25">
-        <v>7.778012771847748</v>
+        <v>11.06681011743797</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.073762085986299</v>
+        <v>53.34726086484364</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.1661899515825</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.347203045319936</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>25.35957497817157</v>
+        <v>21.31026892744379</v>
       </c>
       <c r="N25">
-        <v>21.84908146816295</v>
+        <v>11.22559073149974</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.89813176388392</v>
+        <v>15.40597222990741</v>
       </c>
       <c r="C2">
-        <v>17.31032142052272</v>
+        <v>9.44288880431767</v>
       </c>
       <c r="D2">
-        <v>7.29126705600622</v>
+        <v>5.9820434192404</v>
       </c>
       <c r="E2">
-        <v>10.25342181095516</v>
+        <v>10.2293753987947</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.06354163375759</v>
+        <v>39.97330704477238</v>
       </c>
       <c r="H2">
-        <v>13.43176813431999</v>
+        <v>16.12124930084249</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.41849655544389</v>
+        <v>15.86734605725166</v>
       </c>
       <c r="N2">
-        <v>11.59963302117051</v>
+        <v>17.81794998644376</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.19342337011995</v>
+        <v>14.79867437197658</v>
       </c>
       <c r="C3">
-        <v>16.10903749661509</v>
+        <v>8.818381737864085</v>
       </c>
       <c r="D3">
-        <v>6.767242695600039</v>
+        <v>5.863929050597995</v>
       </c>
       <c r="E3">
-        <v>9.695854962843981</v>
+        <v>10.13407516315474</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.10058982988571</v>
+        <v>39.20635205070928</v>
       </c>
       <c r="H3">
-        <v>12.94928430759769</v>
+        <v>16.07967375491414</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.05734006071064</v>
+        <v>15.58392473444794</v>
       </c>
       <c r="N3">
-        <v>11.85997121492366</v>
+        <v>17.8867236944457</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.09359428146466</v>
+        <v>14.41742632606623</v>
       </c>
       <c r="C4">
-        <v>15.3349260985776</v>
+        <v>8.411130888197571</v>
       </c>
       <c r="D4">
-        <v>6.429707060395365</v>
+        <v>5.792176720368224</v>
       </c>
       <c r="E4">
-        <v>9.350746188646733</v>
+        <v>10.07846394674266</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.25348079630849</v>
+        <v>38.74399187591163</v>
       </c>
       <c r="H4">
-        <v>12.66068693806094</v>
+        <v>16.05857345168006</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.18115585450759</v>
+        <v>15.41226996672802</v>
       </c>
       <c r="N4">
-        <v>12.0232597622092</v>
+        <v>17.93091038690633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.63181810143531</v>
+        <v>14.26022838013124</v>
       </c>
       <c r="C5">
-        <v>15.01013045087555</v>
+        <v>8.239169046025371</v>
       </c>
       <c r="D5">
-        <v>6.288114715566033</v>
+        <v>5.763174448529601</v>
       </c>
       <c r="E5">
-        <v>9.209513346541657</v>
+        <v>10.05655200598757</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.49424659121615</v>
+        <v>38.55800740966662</v>
       </c>
       <c r="H5">
-        <v>12.54504242041923</v>
+        <v>16.05109013152067</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.81374815709049</v>
+        <v>15.34301268598015</v>
       </c>
       <c r="N5">
-        <v>12.09067851193676</v>
+        <v>17.94941033091288</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.55431355414738</v>
+        <v>14.23402322144675</v>
       </c>
       <c r="C6">
-        <v>14.95563005012736</v>
+        <v>8.210251748831912</v>
       </c>
       <c r="D6">
-        <v>6.264357068916723</v>
+        <v>5.758374259061695</v>
       </c>
       <c r="E6">
-        <v>9.186029115045471</v>
+        <v>10.05295939705049</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.36780045680572</v>
+        <v>38.52727978097556</v>
       </c>
       <c r="H6">
-        <v>12.52595947509658</v>
+        <v>16.04991492095913</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.75210972519474</v>
+        <v>15.33155730723822</v>
       </c>
       <c r="N6">
-        <v>12.10192674707419</v>
+        <v>17.95251206336694</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.08742190865996</v>
+        <v>14.41531336139606</v>
       </c>
       <c r="C7">
-        <v>15.33058379989233</v>
+        <v>8.408836084735597</v>
       </c>
       <c r="D7">
-        <v>6.427813965904894</v>
+        <v>5.791784566602321</v>
       </c>
       <c r="E7">
-        <v>9.348843742002245</v>
+        <v>10.07816537251559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.24326712108305</v>
+        <v>38.74147341352582</v>
       </c>
       <c r="H7">
-        <v>12.65911931757088</v>
+        <v>16.0584680120078</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.17624303337136</v>
+        <v>15.41133300183361</v>
       </c>
       <c r="N7">
-        <v>12.02416542430295</v>
+        <v>17.93115788442366</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.32123439025448</v>
+        <v>15.19846376828739</v>
       </c>
       <c r="C8">
-        <v>16.903599205621</v>
+        <v>9.232487224976834</v>
       </c>
       <c r="D8">
-        <v>7.113812274915459</v>
+        <v>5.941183824480611</v>
       </c>
       <c r="E8">
-        <v>10.06179170942332</v>
+        <v>10.19592575792269</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.0479178208049</v>
+        <v>39.70725468841077</v>
       </c>
       <c r="H8">
-        <v>13.26383885095728</v>
+        <v>16.10599672537257</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.95744121233396</v>
+        <v>15.76919012110561</v>
       </c>
       <c r="N8">
-        <v>11.68869019437851</v>
+        <v>17.84125698567259</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.29127076787272</v>
+        <v>16.65749892949989</v>
       </c>
       <c r="C9">
-        <v>19.70643121609749</v>
+        <v>10.65967709453102</v>
       </c>
       <c r="D9">
-        <v>8.337506324864432</v>
+        <v>6.23836896801541</v>
       </c>
       <c r="E9">
-        <v>11.43579711355879</v>
+        <v>10.44893404069946</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.27791470399559</v>
+        <v>41.65663060966042</v>
       </c>
       <c r="H9">
-        <v>14.50958965068148</v>
+        <v>16.2341873068523</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.13911197225369</v>
+        <v>16.48541582593848</v>
       </c>
       <c r="N9">
-        <v>11.05775624985836</v>
+        <v>17.68046994769717</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.97487936812919</v>
+        <v>17.67067196961279</v>
       </c>
       <c r="C10">
-        <v>21.60630790733351</v>
+        <v>11.59483576307588</v>
       </c>
       <c r="D10">
-        <v>9.168100756545758</v>
+        <v>6.456797542847403</v>
       </c>
       <c r="E10">
-        <v>12.52477216684793</v>
+        <v>10.64689848728427</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.47217886675509</v>
+        <v>43.10622877007021</v>
       </c>
       <c r="H10">
-        <v>15.46212391984672</v>
+        <v>16.3494292409953</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.30187325876477</v>
+        <v>17.01474938148977</v>
       </c>
       <c r="N10">
-        <v>10.61058949278231</v>
+        <v>17.57173881121565</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.1494037385893</v>
+        <v>18.11678018811254</v>
       </c>
       <c r="C11">
-        <v>22.43923789085236</v>
+        <v>11.99589890191905</v>
       </c>
       <c r="D11">
-        <v>9.532522088452504</v>
+        <v>6.555686122629085</v>
       </c>
       <c r="E11">
-        <v>13.05601096820392</v>
+        <v>10.73926285945416</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>62.85192908411973</v>
+        <v>43.76610075498905</v>
       </c>
       <c r="H11">
-        <v>15.90437346954387</v>
+        <v>16.40634564623066</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.25166850881362</v>
+        <v>17.25507142917101</v>
       </c>
       <c r="N11">
-        <v>10.41091687947993</v>
+        <v>17.52430375522423</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.58792326047561</v>
+        <v>18.28344196227214</v>
       </c>
       <c r="C12">
-        <v>22.75045316378524</v>
+        <v>12.14429046385929</v>
       </c>
       <c r="D12">
-        <v>9.668724736697785</v>
+        <v>6.593025069982525</v>
       </c>
       <c r="E12">
-        <v>13.25539127108983</v>
+        <v>10.77454307159053</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.7492521513679</v>
+        <v>44.01577323665408</v>
       </c>
       <c r="H12">
-        <v>16.07324869445711</v>
+        <v>16.42853537950929</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.60680590567445</v>
+        <v>17.34591434000243</v>
       </c>
       <c r="N12">
-        <v>10.33588339943229</v>
+        <v>17.5066321274936</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.49375106253479</v>
+        <v>18.24765138393957</v>
       </c>
       <c r="C13">
-        <v>22.68360867566748</v>
+        <v>12.11248627047007</v>
       </c>
       <c r="D13">
-        <v>9.639468605593523</v>
+        <v>6.584988871912126</v>
       </c>
       <c r="E13">
-        <v>13.21252619474586</v>
+        <v>10.76693178878136</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.55615351424668</v>
+        <v>43.96201516892609</v>
       </c>
       <c r="H13">
-        <v>16.03681346109314</v>
+        <v>16.42372826452404</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.53051575057282</v>
+        <v>17.32635833796612</v>
       </c>
       <c r="N13">
-        <v>10.35201661994416</v>
+        <v>17.51042509438838</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.18560369938589</v>
+        <v>18.13053779096714</v>
       </c>
       <c r="C14">
-        <v>22.46492395447575</v>
+        <v>12.00817685075396</v>
       </c>
       <c r="D14">
-        <v>9.54376272283216</v>
+        <v>6.558760404480757</v>
       </c>
       <c r="E14">
-        <v>13.07244834101628</v>
+        <v>10.74215945812357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>62.92582406927151</v>
+        <v>43.78664710850336</v>
       </c>
       <c r="H14">
-        <v>15.9182379139757</v>
+        <v>16.40815850515417</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.28097436306238</v>
+        <v>17.26254889506861</v>
       </c>
       <c r="N14">
-        <v>10.40473193740258</v>
+        <v>17.52284407060283</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.99605387811855</v>
+        <v>18.05850283870052</v>
       </c>
       <c r="C15">
-        <v>22.33043654186449</v>
+        <v>11.94383136271059</v>
       </c>
       <c r="D15">
-        <v>9.484910513745234</v>
+        <v>6.542679504452612</v>
       </c>
       <c r="E15">
-        <v>12.98642197676971</v>
+        <v>10.72702441077356</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.5392561175523</v>
+        <v>43.67919437021457</v>
       </c>
       <c r="H15">
-        <v>15.84579433774423</v>
+        <v>16.39870420391254</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.12754497699838</v>
+        <v>17.22343998501685</v>
       </c>
       <c r="N15">
-        <v>10.43709843325044</v>
+        <v>17.53048893380917</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.89722397550106</v>
+        <v>17.64120746761911</v>
       </c>
       <c r="C16">
-        <v>21.55126887005606</v>
+        <v>11.5681370352293</v>
       </c>
       <c r="D16">
-        <v>9.144025986665788</v>
+        <v>6.450321936889802</v>
       </c>
       <c r="E16">
-        <v>12.48978942893019</v>
+        <v>10.64090632540875</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.31607285309219</v>
+        <v>43.0630901063687</v>
       </c>
       <c r="H16">
-        <v>15.43341083385696</v>
+        <v>16.34579925137049</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.23914691570372</v>
+        <v>16.99902612969064</v>
       </c>
       <c r="N16">
-        <v>10.62371685326674</v>
+        <v>17.57487955233636</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21155081630483</v>
+        <v>17.38131421958655</v>
       </c>
       <c r="C17">
-        <v>21.06545589722334</v>
+        <v>11.33143849064126</v>
       </c>
       <c r="D17">
-        <v>8.931557257171017</v>
+        <v>6.393512900272261</v>
       </c>
       <c r="E17">
-        <v>12.18165114653519</v>
+        <v>10.58864722520931</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.95861317652498</v>
+        <v>42.6850473593712</v>
       </c>
       <c r="H17">
-        <v>15.18278597414694</v>
+        <v>16.31448814125646</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.68566723348554</v>
+        <v>16.86116611988331</v>
       </c>
       <c r="N17">
-        <v>10.73918243233141</v>
+        <v>17.60263061191635</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.81278823363012</v>
+        <v>17.23044567519639</v>
       </c>
       <c r="C18">
-        <v>20.78305908607839</v>
+        <v>11.19300315690733</v>
       </c>
       <c r="D18">
-        <v>8.808078742914287</v>
+        <v>6.360795317400078</v>
       </c>
       <c r="E18">
-        <v>12.00306303005896</v>
+        <v>10.5588082729199</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.18530716904394</v>
+        <v>42.46766429703421</v>
       </c>
       <c r="H18">
-        <v>15.03946445897828</v>
+        <v>16.29690228297324</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.3640901339579</v>
+        <v>16.78183339353037</v>
       </c>
       <c r="N18">
-        <v>10.80594432267143</v>
+        <v>17.61878313402319</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.67701002759339</v>
+        <v>17.17913102038772</v>
       </c>
       <c r="C19">
-        <v>20.68692555202169</v>
+        <v>11.1457370135954</v>
       </c>
       <c r="D19">
-        <v>8.766048739849799</v>
+        <v>6.349711642301663</v>
       </c>
       <c r="E19">
-        <v>11.94344284237236</v>
+        <v>10.54874379891086</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>57.92304965491749</v>
+        <v>42.39408036985231</v>
       </c>
       <c r="H19">
-        <v>14.99107816569517</v>
+        <v>16.29102100668037</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.25464445572846</v>
+        <v>16.7549688642629</v>
       </c>
       <c r="N19">
-        <v>10.8286078413718</v>
+        <v>17.6242848950042</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.28499259433079</v>
+        <v>17.40912472245721</v>
       </c>
       <c r="C20">
-        <v>21.11747680556352</v>
+        <v>11.35687259529793</v>
       </c>
       <c r="D20">
-        <v>8.954305658908279</v>
+        <v>6.399565014127455</v>
       </c>
       <c r="E20">
-        <v>12.21459151650705</v>
+        <v>10.59418782263334</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.10153477813888</v>
+        <v>42.72528673920153</v>
       </c>
       <c r="H20">
-        <v>15.2093786723982</v>
+        <v>16.31777749882094</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.744917901734</v>
+        <v>16.87584631110045</v>
       </c>
       <c r="N20">
-        <v>10.72685456880381</v>
+        <v>17.59965671625428</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.27628010731993</v>
+        <v>18.16499953466503</v>
       </c>
       <c r="C21">
-        <v>22.52926819370298</v>
+        <v>12.03890941866009</v>
       </c>
       <c r="D21">
-        <v>9.571921443045692</v>
+        <v>6.566467577895456</v>
       </c>
       <c r="E21">
-        <v>13.11363890269875</v>
+        <v>10.74942767388968</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.11106397239698</v>
+        <v>43.83816466327591</v>
       </c>
       <c r="H21">
-        <v>15.95302709288455</v>
+        <v>16.41271451984699</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.35439045862563</v>
+        <v>17.2812963929593</v>
       </c>
       <c r="N21">
-        <v>10.38923205469542</v>
+        <v>17.51918842261358</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.54151568909176</v>
+        <v>18.64572479733874</v>
       </c>
       <c r="C22">
-        <v>23.42766713497582</v>
+        <v>12.46437067893532</v>
       </c>
       <c r="D22">
-        <v>9.965177230869397</v>
+        <v>6.674901606269319</v>
       </c>
       <c r="E22">
-        <v>13.69094339562767</v>
+        <v>10.85264343565272</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>65.71669276354315</v>
+        <v>44.56417329700284</v>
       </c>
       <c r="H22">
-        <v>16.44732658269963</v>
+        <v>16.47846757808362</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.38008245752325</v>
+        <v>17.54529774097412</v>
       </c>
       <c r="N22">
-        <v>10.17198190902306</v>
+        <v>17.46829368602802</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.86939835127182</v>
+        <v>18.39041031837997</v>
       </c>
       <c r="C23">
-        <v>22.95028332284254</v>
+        <v>12.23914437259735</v>
       </c>
       <c r="D23">
-        <v>9.756191050977732</v>
+        <v>6.617100014778292</v>
       </c>
       <c r="E23">
-        <v>13.38367013284122</v>
+        <v>10.79740387530881</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>64.32770219775736</v>
+        <v>44.17689583961175</v>
       </c>
       <c r="H23">
-        <v>16.18269872343726</v>
+        <v>16.44303816786104</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.83491239054324</v>
+        <v>17.40451510759999</v>
       </c>
       <c r="N23">
-        <v>10.28760167123856</v>
+        <v>17.49530214891796</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.2518037995891</v>
+        <v>17.39655610711915</v>
       </c>
       <c r="C24">
-        <v>21.09396782037339</v>
+        <v>11.34538117075</v>
       </c>
       <c r="D24">
-        <v>8.944025250944817</v>
+        <v>6.39682902893631</v>
       </c>
       <c r="E24">
-        <v>12.19970366464438</v>
+        <v>10.59168227631287</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.03692852840278</v>
+        <v>42.70709462342155</v>
       </c>
       <c r="H24">
-        <v>15.19735373581057</v>
+        <v>16.31628908596119</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.7181412117291</v>
+        <v>16.86920962364304</v>
       </c>
       <c r="N24">
-        <v>10.73242681752058</v>
+        <v>17.60100059750459</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.25955533981953</v>
+        <v>16.27234246871258</v>
       </c>
       <c r="C25">
-        <v>18.97716710426704</v>
+        <v>10.29358546450806</v>
       </c>
       <c r="D25">
-        <v>8.018927931539361</v>
+        <v>6.15778237583713</v>
       </c>
       <c r="E25">
-        <v>11.06681011743797</v>
+        <v>10.37826245065687</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.34726086484364</v>
+        <v>41.12504834188655</v>
       </c>
       <c r="H25">
-        <v>14.1661899515825</v>
+        <v>16.19578548603395</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.31026892744379</v>
+        <v>16.2907044935307</v>
       </c>
       <c r="N25">
-        <v>11.22559073149974</v>
+        <v>17.72231264979244</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.40597222990741</v>
+        <v>23.89813176388382</v>
       </c>
       <c r="C2">
-        <v>9.44288880431767</v>
+        <v>17.31032142052251</v>
       </c>
       <c r="D2">
-        <v>5.9820434192404</v>
+        <v>7.291267056006315</v>
       </c>
       <c r="E2">
-        <v>10.2293753987947</v>
+        <v>10.25342181095514</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.97330704477238</v>
+        <v>49.06354163375754</v>
       </c>
       <c r="H2">
-        <v>16.12124930084249</v>
+        <v>13.43176813432002</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.86734605725166</v>
+        <v>19.41849655544379</v>
       </c>
       <c r="N2">
-        <v>17.81794998644376</v>
+        <v>11.59963302117063</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.79867437197658</v>
+        <v>22.19342337012002</v>
       </c>
       <c r="C3">
-        <v>8.818381737864085</v>
+        <v>16.10903749661503</v>
       </c>
       <c r="D3">
-        <v>5.863929050597995</v>
+        <v>6.767242695599945</v>
       </c>
       <c r="E3">
-        <v>10.13407516315474</v>
+        <v>9.695854962843969</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.20635205070928</v>
+        <v>46.10058982988576</v>
       </c>
       <c r="H3">
-        <v>16.07967375491414</v>
+        <v>12.94928430759769</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.58392473444794</v>
+        <v>18.0573400607107</v>
       </c>
       <c r="N3">
-        <v>17.8867236944457</v>
+        <v>11.85997121492363</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.41742632606623</v>
+        <v>21.09359428146473</v>
       </c>
       <c r="C4">
-        <v>8.411130888197571</v>
+        <v>15.33492609857767</v>
       </c>
       <c r="D4">
-        <v>5.792176720368224</v>
+        <v>6.429707060395312</v>
       </c>
       <c r="E4">
-        <v>10.07846394674266</v>
+        <v>9.350746188646768</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>38.74399187591163</v>
+        <v>44.25348079630842</v>
       </c>
       <c r="H4">
-        <v>16.05857345168006</v>
+        <v>12.66068693806085</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.41226996672802</v>
+        <v>17.18115585450764</v>
       </c>
       <c r="N4">
-        <v>17.93091038690633</v>
+        <v>12.02325976220914</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26022838013124</v>
+        <v>20.63181810143541</v>
       </c>
       <c r="C5">
-        <v>8.239169046025371</v>
+        <v>15.01013045087564</v>
       </c>
       <c r="D5">
-        <v>5.763174448529601</v>
+        <v>6.288114715565986</v>
       </c>
       <c r="E5">
-        <v>10.05655200598757</v>
+        <v>9.209513346541678</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.55800740966662</v>
+        <v>43.494246591216</v>
       </c>
       <c r="H5">
-        <v>16.05109013152067</v>
+        <v>12.54504242041913</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.34301268598015</v>
+        <v>16.81374815709053</v>
       </c>
       <c r="N5">
-        <v>17.94941033091288</v>
+        <v>12.09067851193659</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.23402322144675</v>
+        <v>20.55431355414732</v>
       </c>
       <c r="C6">
-        <v>8.210251748831912</v>
+        <v>14.95563005012732</v>
       </c>
       <c r="D6">
-        <v>5.758374259061695</v>
+        <v>6.264357068916716</v>
       </c>
       <c r="E6">
-        <v>10.05295939705049</v>
+        <v>9.186029115045491</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.52727978097556</v>
+        <v>43.36780045680567</v>
       </c>
       <c r="H6">
-        <v>16.04991492095913</v>
+        <v>12.52595947509666</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.33155730723822</v>
+        <v>16.75210972519471</v>
       </c>
       <c r="N6">
-        <v>17.95251206336694</v>
+        <v>12.10192674707419</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.41531336139606</v>
+        <v>21.08742190865995</v>
       </c>
       <c r="C7">
-        <v>8.408836084735597</v>
+        <v>15.33058379989242</v>
       </c>
       <c r="D7">
-        <v>5.791784566602321</v>
+        <v>6.427813965904885</v>
       </c>
       <c r="E7">
-        <v>10.07816537251559</v>
+        <v>9.34884374200225</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>38.74147341352582</v>
+        <v>44.24326712108301</v>
       </c>
       <c r="H7">
-        <v>16.0584680120078</v>
+        <v>12.65911931757085</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.41133300183361</v>
+        <v>17.17624303337141</v>
       </c>
       <c r="N7">
-        <v>17.93115788442366</v>
+        <v>12.02416542430292</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.19846376828739</v>
+        <v>23.32123439025446</v>
       </c>
       <c r="C8">
-        <v>9.232487224976834</v>
+        <v>16.903599205621</v>
       </c>
       <c r="D8">
-        <v>5.941183824480611</v>
+        <v>7.113812274915514</v>
       </c>
       <c r="E8">
-        <v>10.19592575792269</v>
+        <v>10.06179170942332</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.70725468841077</v>
+        <v>48.04791782080495</v>
       </c>
       <c r="H8">
-        <v>16.10599672537257</v>
+        <v>13.2638388509573</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.76919012110561</v>
+        <v>18.95744121233394</v>
       </c>
       <c r="N8">
-        <v>17.84125698567259</v>
+        <v>11.68869019437854</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.65749892949989</v>
+        <v>27.29127076787267</v>
       </c>
       <c r="C9">
-        <v>10.65967709453102</v>
+        <v>19.70643121609741</v>
       </c>
       <c r="D9">
-        <v>6.23836896801541</v>
+        <v>8.337506324864435</v>
       </c>
       <c r="E9">
-        <v>10.44893404069946</v>
+        <v>11.4357971135588</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.65663060966042</v>
+        <v>55.27791470399549</v>
       </c>
       <c r="H9">
-        <v>16.2341873068523</v>
+        <v>14.50958965068151</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.48541582593848</v>
+        <v>22.13911197225367</v>
       </c>
       <c r="N9">
-        <v>17.68046994769717</v>
+        <v>11.05775624985835</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67067196961279</v>
+        <v>29.97487936812926</v>
       </c>
       <c r="C10">
-        <v>11.59483576307588</v>
+        <v>21.60630790733359</v>
       </c>
       <c r="D10">
-        <v>6.456797542847403</v>
+        <v>9.168100756545714</v>
       </c>
       <c r="E10">
-        <v>10.64689848728427</v>
+        <v>12.52477216684798</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.10622877007021</v>
+        <v>60.47217886675508</v>
       </c>
       <c r="H10">
-        <v>16.3494292409953</v>
+        <v>15.46212391984665</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.01474938148977</v>
+        <v>24.30187325876485</v>
       </c>
       <c r="N10">
-        <v>17.57173881121565</v>
+        <v>10.61058949278224</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.11678018811254</v>
+        <v>31.14940373858939</v>
       </c>
       <c r="C11">
-        <v>11.99589890191905</v>
+        <v>22.43923789085243</v>
       </c>
       <c r="D11">
-        <v>6.555686122629085</v>
+        <v>9.532522088452511</v>
       </c>
       <c r="E11">
-        <v>10.73926285945416</v>
+        <v>13.05601096820392</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.76610075498905</v>
+        <v>62.85192908411987</v>
       </c>
       <c r="H11">
-        <v>16.40634564623066</v>
+        <v>15.90437346954388</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.25507142917101</v>
+        <v>25.25166850881365</v>
       </c>
       <c r="N11">
-        <v>17.52430375522423</v>
+        <v>10.41091687947988</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.28344196227214</v>
+        <v>31.58792326047571</v>
       </c>
       <c r="C12">
-        <v>12.14429046385929</v>
+        <v>22.75045316378507</v>
       </c>
       <c r="D12">
-        <v>6.593025069982525</v>
+        <v>9.668724736697792</v>
       </c>
       <c r="E12">
-        <v>10.77454307159053</v>
+        <v>13.25539127108985</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.01577323665408</v>
+        <v>63.74925215136794</v>
       </c>
       <c r="H12">
-        <v>16.42853537950929</v>
+        <v>16.07324869445711</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.34591434000243</v>
+        <v>25.60680590567447</v>
       </c>
       <c r="N12">
-        <v>17.5066321274936</v>
+        <v>10.33588339943225</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.24765138393957</v>
+        <v>31.49375106253473</v>
       </c>
       <c r="C13">
-        <v>12.11248627047007</v>
+        <v>22.68360867566731</v>
       </c>
       <c r="D13">
-        <v>6.584988871912126</v>
+        <v>9.63946860559351</v>
       </c>
       <c r="E13">
-        <v>10.76693178878136</v>
+        <v>13.21252619474578</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.96201516892609</v>
+        <v>63.55615351424656</v>
       </c>
       <c r="H13">
-        <v>16.42372826452404</v>
+        <v>16.03681346109314</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.32635833796612</v>
+        <v>25.53051575057273</v>
       </c>
       <c r="N13">
-        <v>17.51042509438838</v>
+        <v>10.35201661994422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.13053779096714</v>
+        <v>31.18560369938599</v>
       </c>
       <c r="C14">
-        <v>12.00817685075396</v>
+        <v>22.46492395447577</v>
       </c>
       <c r="D14">
-        <v>6.558760404480757</v>
+        <v>9.543762722832199</v>
       </c>
       <c r="E14">
-        <v>10.74215945812357</v>
+        <v>13.07244834101632</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.78664710850336</v>
+        <v>62.92582406927163</v>
       </c>
       <c r="H14">
-        <v>16.40815850515417</v>
+        <v>15.91823791397567</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.26254889506861</v>
+        <v>25.28097436306243</v>
       </c>
       <c r="N14">
-        <v>17.52284407060283</v>
+        <v>10.40473193740245</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.05850283870052</v>
+        <v>30.99605387811848</v>
       </c>
       <c r="C15">
-        <v>11.94383136271059</v>
+        <v>22.3304365418646</v>
       </c>
       <c r="D15">
-        <v>6.542679504452612</v>
+        <v>9.484910513745298</v>
       </c>
       <c r="E15">
-        <v>10.72702441077356</v>
+        <v>12.98642197676962</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.67919437021457</v>
+        <v>62.5392561175523</v>
       </c>
       <c r="H15">
-        <v>16.39870420391254</v>
+        <v>15.84579433774423</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.22343998501685</v>
+        <v>25.12754497699833</v>
       </c>
       <c r="N15">
-        <v>17.53048893380917</v>
+        <v>10.43709843325041</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.64120746761911</v>
+        <v>29.89722397550107</v>
       </c>
       <c r="C16">
-        <v>11.5681370352293</v>
+        <v>21.55126887005615</v>
       </c>
       <c r="D16">
-        <v>6.450321936889802</v>
+        <v>9.144025986665817</v>
       </c>
       <c r="E16">
-        <v>10.64090632540875</v>
+        <v>12.48978942893018</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.0630901063687</v>
+        <v>60.31607285309217</v>
       </c>
       <c r="H16">
-        <v>16.34579925137049</v>
+        <v>15.43341083385694</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.99902612969064</v>
+        <v>24.23914691570373</v>
       </c>
       <c r="N16">
-        <v>17.57487955233636</v>
+        <v>10.62371685326671</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.38131421958655</v>
+        <v>29.21155081630486</v>
       </c>
       <c r="C17">
-        <v>11.33143849064126</v>
+        <v>21.0654558972233</v>
       </c>
       <c r="D17">
-        <v>6.393512900272261</v>
+        <v>8.931557257170988</v>
       </c>
       <c r="E17">
-        <v>10.58864722520931</v>
+        <v>12.1816511465352</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.6850473593712</v>
+        <v>58.95861317652494</v>
       </c>
       <c r="H17">
-        <v>16.31448814125646</v>
+        <v>15.18278597414694</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.86116611988331</v>
+        <v>23.68566723348555</v>
       </c>
       <c r="N17">
-        <v>17.60263061191635</v>
+        <v>10.7391824323314</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.23044567519639</v>
+        <v>28.81278823363011</v>
       </c>
       <c r="C18">
-        <v>11.19300315690733</v>
+        <v>20.78305908607845</v>
       </c>
       <c r="D18">
-        <v>6.360795317400078</v>
+        <v>8.808078742914251</v>
       </c>
       <c r="E18">
-        <v>10.5588082729199</v>
+        <v>12.00306303005894</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.46766429703421</v>
+        <v>58.18530716904391</v>
       </c>
       <c r="H18">
-        <v>16.29690228297324</v>
+        <v>15.03946445897827</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.78183339353037</v>
+        <v>23.36409013395788</v>
       </c>
       <c r="N18">
-        <v>17.61878313402319</v>
+        <v>10.8059443226714</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.17913102038772</v>
+        <v>28.67701002759325</v>
       </c>
       <c r="C19">
-        <v>11.1457370135954</v>
+        <v>20.68692555202141</v>
       </c>
       <c r="D19">
-        <v>6.349711642301663</v>
+        <v>8.766048739849758</v>
       </c>
       <c r="E19">
-        <v>10.54874379891086</v>
+        <v>11.9434428423723</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.39408036985231</v>
+        <v>57.92304965491739</v>
       </c>
       <c r="H19">
-        <v>16.29102100668037</v>
+        <v>14.9910781656952</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.7549688642629</v>
+        <v>23.25464445572834</v>
       </c>
       <c r="N19">
-        <v>17.6242848950042</v>
+        <v>10.82860784137186</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.40912472245721</v>
+        <v>29.28499259433067</v>
       </c>
       <c r="C20">
-        <v>11.35687259529793</v>
+        <v>21.11747680556337</v>
       </c>
       <c r="D20">
-        <v>6.399565014127455</v>
+        <v>8.95430565890822</v>
       </c>
       <c r="E20">
-        <v>10.59418782263334</v>
+        <v>12.21459151650707</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.72528673920153</v>
+        <v>59.10153477813886</v>
       </c>
       <c r="H20">
-        <v>16.31777749882094</v>
+        <v>15.20937867239823</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.87584631110045</v>
+        <v>23.74491790173393</v>
       </c>
       <c r="N20">
-        <v>17.59965671625428</v>
+        <v>10.7268545688039</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.16499953466503</v>
+        <v>31.27628010731996</v>
       </c>
       <c r="C21">
-        <v>12.03890941866009</v>
+        <v>22.5292681937031</v>
       </c>
       <c r="D21">
-        <v>6.566467577895456</v>
+        <v>9.571921443045602</v>
       </c>
       <c r="E21">
-        <v>10.74942767388968</v>
+        <v>13.11363890269876</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.83816466327591</v>
+        <v>63.11106397239698</v>
       </c>
       <c r="H21">
-        <v>16.41271451984699</v>
+        <v>15.95302709288455</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.2812963929593</v>
+        <v>25.35439045862567</v>
       </c>
       <c r="N21">
-        <v>17.51918842261358</v>
+        <v>10.38923205469541</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.64572479733874</v>
+        <v>32.54151568909175</v>
       </c>
       <c r="C22">
-        <v>12.46437067893532</v>
+        <v>23.42766713497588</v>
       </c>
       <c r="D22">
-        <v>6.674901606269319</v>
+        <v>9.965177230869388</v>
       </c>
       <c r="E22">
-        <v>10.85264343565272</v>
+        <v>13.6909433956276</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>44.56417329700284</v>
+        <v>65.71669276354312</v>
       </c>
       <c r="H22">
-        <v>16.47846757808362</v>
+        <v>16.44732658269965</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.54529774097412</v>
+        <v>26.38008245752323</v>
       </c>
       <c r="N22">
-        <v>17.46829368602802</v>
+        <v>10.17198190902312</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.39041031837997</v>
+        <v>31.86939835127193</v>
       </c>
       <c r="C23">
-        <v>12.23914437259735</v>
+        <v>22.95028332284267</v>
       </c>
       <c r="D23">
-        <v>6.617100014778292</v>
+        <v>9.756191050977755</v>
       </c>
       <c r="E23">
-        <v>10.79740387530881</v>
+        <v>13.38367013284122</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.17689583961175</v>
+        <v>64.32770219775765</v>
       </c>
       <c r="H23">
-        <v>16.44303816786104</v>
+        <v>16.18269872343726</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.40451510759999</v>
+        <v>25.83491239054331</v>
       </c>
       <c r="N23">
-        <v>17.49530214891796</v>
+        <v>10.28760167123852</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.39655610711915</v>
+        <v>29.25180379958912</v>
       </c>
       <c r="C24">
-        <v>11.34538117075</v>
+        <v>21.09396782037339</v>
       </c>
       <c r="D24">
-        <v>6.39682902893631</v>
+        <v>8.944025250944749</v>
       </c>
       <c r="E24">
-        <v>10.59168227631287</v>
+        <v>12.19970366464439</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.70709462342155</v>
+        <v>59.03692852840285</v>
       </c>
       <c r="H24">
-        <v>16.31628908596119</v>
+        <v>15.19735373581058</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.86920962364304</v>
+        <v>23.71814121172911</v>
       </c>
       <c r="N24">
-        <v>17.60100059750459</v>
+        <v>10.73242681752059</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27234246871258</v>
+        <v>26.2595553398196</v>
       </c>
       <c r="C25">
-        <v>10.29358546450806</v>
+        <v>18.9771671042669</v>
       </c>
       <c r="D25">
-        <v>6.15778237583713</v>
+        <v>8.018927931539377</v>
       </c>
       <c r="E25">
-        <v>10.37826245065687</v>
+        <v>11.06681011743796</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>41.12504834188655</v>
+        <v>53.34726086484376</v>
       </c>
       <c r="H25">
-        <v>16.19578548603395</v>
+        <v>14.16618995158253</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.2907044935307</v>
+        <v>21.31026892744381</v>
       </c>
       <c r="N25">
-        <v>17.72231264979244</v>
+        <v>11.22559073149981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.89813176388382</v>
+        <v>21.13228906934081</v>
       </c>
       <c r="C2">
-        <v>17.31032142052251</v>
+        <v>18.01952501347877</v>
       </c>
       <c r="D2">
-        <v>7.291267056006315</v>
+        <v>10.37655653757009</v>
       </c>
       <c r="E2">
-        <v>10.25342181095514</v>
+        <v>10.21507054103627</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.06354163375754</v>
+        <v>45.89575753110635</v>
       </c>
       <c r="H2">
-        <v>13.43176813432002</v>
+        <v>2.27795643400374</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.56673851627446</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.81095820498073</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.76181473976664</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.427678498883031</v>
       </c>
       <c r="M2">
-        <v>19.41849655544379</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.59963302117063</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.59159048618001</v>
+      </c>
+      <c r="P2">
+        <v>12.97959933908612</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.19342337012002</v>
+        <v>19.76398763359976</v>
       </c>
       <c r="C3">
-        <v>16.10903749661503</v>
+        <v>16.78023176507174</v>
       </c>
       <c r="D3">
-        <v>6.767242695599945</v>
+        <v>9.990879538159456</v>
       </c>
       <c r="E3">
-        <v>9.695854962843969</v>
+        <v>9.844576194104517</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.10058982988576</v>
+        <v>43.90400380913877</v>
       </c>
       <c r="H3">
-        <v>12.94928430759769</v>
+        <v>2.595267650867016</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.798951058228584</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.49694024608462</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.39718389291601</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.298254718724222</v>
       </c>
       <c r="M3">
-        <v>18.0573400607107</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.85997121492363</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.67322396389282</v>
+      </c>
+      <c r="P3">
+        <v>13.13604331543136</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.09359428146473</v>
+        <v>18.87449660505597</v>
       </c>
       <c r="C4">
-        <v>15.33492609857767</v>
+        <v>15.979373809039</v>
       </c>
       <c r="D4">
-        <v>6.429707060395312</v>
+        <v>9.748435299326232</v>
       </c>
       <c r="E4">
-        <v>9.350746188646768</v>
+        <v>9.609765558368649</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.25348079630842</v>
+        <v>42.64788272269222</v>
       </c>
       <c r="H4">
-        <v>12.66068693806085</v>
+        <v>2.796403992035257</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.946856275659259</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.30399770669007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.1734700225849</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.216275968406666</v>
       </c>
       <c r="M4">
-        <v>17.18115585450764</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.02325976220914</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.08541466496287</v>
+      </c>
+      <c r="P4">
+        <v>13.23268691204005</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.63181810143541</v>
+        <v>18.49213287707939</v>
       </c>
       <c r="C5">
-        <v>15.01013045087564</v>
+        <v>15.64981547254778</v>
       </c>
       <c r="D5">
-        <v>6.288114715565986</v>
+        <v>9.648353285679658</v>
       </c>
       <c r="E5">
-        <v>9.209513346541678</v>
+        <v>9.512228838068511</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.494246591216</v>
+        <v>42.10394402730017</v>
       </c>
       <c r="H5">
-        <v>12.54504242041913</v>
+        <v>2.880406814446771</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.011559285001185</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.22054495902799</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.0722707994452</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.182075607816619</v>
       </c>
       <c r="M5">
-        <v>16.81374815709053</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.09067851193659</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.83864572594144</v>
+      </c>
+      <c r="P5">
+        <v>13.27092380523738</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.55431355414732</v>
+        <v>18.41870485496182</v>
       </c>
       <c r="C6">
-        <v>14.95563005012732</v>
+        <v>15.60291172967881</v>
       </c>
       <c r="D6">
-        <v>6.264357068916716</v>
+        <v>9.631699796403765</v>
       </c>
       <c r="E6">
-        <v>9.186029115045491</v>
+        <v>9.495864350476818</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.36780045680567</v>
+        <v>41.98345559905071</v>
       </c>
       <c r="H6">
-        <v>12.52595947509666</v>
+        <v>2.894960299174639</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.026332955880566</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.20075370580401</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.04309638213081</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.176175075584174</v>
       </c>
       <c r="M6">
-        <v>16.75210972519471</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.10192674707419</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.79560634323597</v>
+      </c>
+      <c r="P6">
+        <v>13.27568658363255</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.08742190865995</v>
+        <v>18.84486640133471</v>
       </c>
       <c r="C7">
-        <v>15.33058379989242</v>
+        <v>15.99739368188479</v>
       </c>
       <c r="D7">
-        <v>6.427813965904885</v>
+        <v>9.747207972770447</v>
       </c>
       <c r="E7">
-        <v>9.34884374200225</v>
+        <v>9.608299956782338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.24326712108301</v>
+        <v>42.56061372163801</v>
       </c>
       <c r="H7">
-        <v>12.65911931757085</v>
+        <v>2.798895694449969</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.958251846292308</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.28677882869627</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.1384973233066</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.215326526654414</v>
       </c>
       <c r="M7">
-        <v>17.17624303337141</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.02416542430292</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.07749738904511</v>
+      </c>
+      <c r="P7">
+        <v>13.22889652297069</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.32123439025446</v>
+        <v>20.64071987194638</v>
       </c>
       <c r="C8">
-        <v>16.903599205621</v>
+        <v>17.62764898793986</v>
       </c>
       <c r="D8">
-        <v>7.113812274915514</v>
+        <v>10.24497108626577</v>
       </c>
       <c r="E8">
-        <v>10.06179170942332</v>
+        <v>10.08870209640352</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.04791782080495</v>
+        <v>45.11581853566924</v>
       </c>
       <c r="H8">
-        <v>13.2638388509573</v>
+        <v>2.387819500590038</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.659590261210298</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.68204232168478</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.59258936511878</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.382949042919458</v>
       </c>
       <c r="M8">
-        <v>18.95744121233394</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.68869019437854</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.27424516695523</v>
+      </c>
+      <c r="P8">
+        <v>13.02798621431913</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.29127076787267</v>
+        <v>23.88221434792379</v>
       </c>
       <c r="C9">
-        <v>19.70643121609741</v>
+        <v>20.47546487319003</v>
       </c>
       <c r="D9">
-        <v>8.337506324864435</v>
+        <v>11.17234618698415</v>
       </c>
       <c r="E9">
-        <v>11.4357971135588</v>
+        <v>10.97134320737154</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.27791470399549</v>
+        <v>49.97535290378961</v>
       </c>
       <c r="H9">
-        <v>14.50958965068151</v>
+        <v>1.627598493682957</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.84609681195598</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.48135854078572</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.54104137291439</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.693142037982387</v>
       </c>
       <c r="M9">
-        <v>22.13911197225367</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.05775624985835</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.43237541245463</v>
+      </c>
+      <c r="P9">
+        <v>12.64499764976016</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.97487936812926</v>
+        <v>25.98441049670211</v>
       </c>
       <c r="C10">
-        <v>21.60630790733359</v>
+        <v>22.29982669369643</v>
       </c>
       <c r="D10">
-        <v>9.168100756545714</v>
+        <v>11.71381464940642</v>
       </c>
       <c r="E10">
-        <v>12.52477216684798</v>
+        <v>11.41390611427438</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.47217886675508</v>
+        <v>52.9554619741646</v>
       </c>
       <c r="H10">
-        <v>15.46212391984665</v>
+        <v>1.99836856549614</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.218867846963164</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.97841232959027</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.09827775082914</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.871212869792992</v>
       </c>
       <c r="M10">
-        <v>24.30187325876485</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.61058949278224</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.74160833227853</v>
+      </c>
+      <c r="P10">
+        <v>12.34835500310332</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.14940373858939</v>
+        <v>26.39849972047973</v>
       </c>
       <c r="C11">
-        <v>22.43923789085243</v>
+        <v>22.34958280360959</v>
       </c>
       <c r="D11">
-        <v>9.532522088452511</v>
+        <v>11.04254978984368</v>
       </c>
       <c r="E11">
-        <v>13.05601096820392</v>
+        <v>10.24245986257</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>62.85192908411987</v>
+        <v>51.05642987461098</v>
       </c>
       <c r="H11">
-        <v>15.90437346954388</v>
+        <v>2.901056146547442</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.312078751987223</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.50711639128514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.25142898889123</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.706871253438473</v>
       </c>
       <c r="M11">
-        <v>25.25166850881365</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.41091687947988</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>20.02769111742594</v>
+      </c>
+      <c r="P11">
+        <v>12.11057435799765</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.58792326047571</v>
+        <v>26.34732541167656</v>
       </c>
       <c r="C12">
-        <v>22.75045316378507</v>
+        <v>21.98827296523458</v>
       </c>
       <c r="D12">
-        <v>9.668724736697792</v>
+        <v>10.36058065818026</v>
       </c>
       <c r="E12">
-        <v>13.25539127108985</v>
+        <v>9.29272258426357</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.74925215136794</v>
+        <v>48.89780970907337</v>
       </c>
       <c r="H12">
-        <v>16.07324869445711</v>
+        <v>4.156383248038579</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.314174031431818</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.01853668334403</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.45839612216077</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.662086486871586</v>
       </c>
       <c r="M12">
-        <v>25.60680590567447</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.33588339943225</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.14544703407952</v>
+      </c>
+      <c r="P12">
+        <v>12.01085485256978</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.49375106253473</v>
+        <v>25.90573196771502</v>
       </c>
       <c r="C13">
-        <v>22.68360867566731</v>
+        <v>21.30206385783946</v>
       </c>
       <c r="D13">
-        <v>9.63946860559351</v>
+        <v>9.618715251545348</v>
       </c>
       <c r="E13">
-        <v>13.21252619474578</v>
+        <v>8.486386068846237</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.55615351424656</v>
+        <v>46.24719413743802</v>
       </c>
       <c r="H13">
-        <v>16.03681346109314</v>
+        <v>5.468288504863678</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.249231948793935</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.45742567277692</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.60258671962351</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.704354057440749</v>
       </c>
       <c r="M13">
-        <v>25.53051575057273</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.35201661994422</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.05117198366453</v>
+      </c>
+      <c r="P13">
+        <v>12.0032482293735</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.18560369938599</v>
+        <v>25.40851101574957</v>
       </c>
       <c r="C14">
-        <v>22.46492395447577</v>
+        <v>20.66994109555201</v>
       </c>
       <c r="D14">
-        <v>9.543762722832199</v>
+        <v>9.070458510603837</v>
       </c>
       <c r="E14">
-        <v>13.07244834101632</v>
+        <v>8.038343828077481</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>62.92582406927163</v>
+        <v>44.12109876542101</v>
       </c>
       <c r="H14">
-        <v>15.91823791397567</v>
+        <v>6.464190869011133</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.174759748323824</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.02576570290869</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.96631291425712</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.787899695627826</v>
       </c>
       <c r="M14">
-        <v>25.28097436306243</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.40473193740245</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.17501565347811</v>
+      </c>
+      <c r="P14">
+        <v>12.04211898686691</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.99605387811848</v>
+        <v>25.19445401723342</v>
       </c>
       <c r="C15">
-        <v>22.3304365418646</v>
+        <v>20.45053920524579</v>
       </c>
       <c r="D15">
-        <v>9.484910513745298</v>
+        <v>8.923934699197666</v>
       </c>
       <c r="E15">
-        <v>12.98642197676962</v>
+        <v>7.94203800383699</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.5392561175523</v>
+        <v>43.47081612235479</v>
       </c>
       <c r="H15">
-        <v>15.84579433774423</v>
+        <v>6.706643913416596</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.142934767827462</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.90072349894955</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.78819701389031</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.808196466976046</v>
       </c>
       <c r="M15">
-        <v>25.12754497699833</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.43709843325041</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.91377753352266</v>
+      </c>
+      <c r="P15">
+        <v>12.06651035509299</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.89722397550107</v>
+        <v>24.37900909892634</v>
       </c>
       <c r="C16">
-        <v>21.55126887005615</v>
+        <v>19.79451061840084</v>
       </c>
       <c r="D16">
-        <v>9.144025986665817</v>
+        <v>8.816692469802421</v>
       </c>
       <c r="E16">
-        <v>12.48978942893018</v>
+        <v>7.884931596597039</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.31607285309217</v>
+        <v>42.54809392856787</v>
       </c>
       <c r="H16">
-        <v>15.43341083385694</v>
+        <v>6.513736332732297</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.999959159057608</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.77692422210837</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.686230425883</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.7171951308691</v>
       </c>
       <c r="M16">
-        <v>24.23914691570373</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.62371685326671</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.51927268958003</v>
+      </c>
+      <c r="P16">
+        <v>12.18578567856956</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21155081630486</v>
+        <v>24.01692277779689</v>
       </c>
       <c r="C17">
-        <v>21.0654558972233</v>
+        <v>19.63689312691425</v>
       </c>
       <c r="D17">
-        <v>8.931557257170988</v>
+        <v>9.0312349483492</v>
       </c>
       <c r="E17">
-        <v>12.1816511465352</v>
+        <v>8.056274335808057</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.95861317652494</v>
+        <v>43.01034461946001</v>
       </c>
       <c r="H17">
-        <v>15.18278597414694</v>
+        <v>5.784186158167916</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.929589849390294</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.91552183180369</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.94922163707841</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.590713002755449</v>
       </c>
       <c r="M17">
-        <v>23.68566723348555</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.7391824323314</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.69886148184333</v>
+      </c>
+      <c r="P17">
+        <v>12.25588741730293</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.81278823363011</v>
+        <v>24.03367119582398</v>
       </c>
       <c r="C18">
-        <v>20.78305908607845</v>
+        <v>19.88545679342262</v>
       </c>
       <c r="D18">
-        <v>8.808078742914251</v>
+        <v>9.553764566902712</v>
       </c>
       <c r="E18">
-        <v>12.00306303005894</v>
+        <v>8.57534562379656</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.18530716904391</v>
+        <v>44.77116409605971</v>
       </c>
       <c r="H18">
-        <v>15.03946445897827</v>
+        <v>4.526539138511263</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.912842141272019</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.30576499000696</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.58131601056402</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.483314255647887</v>
       </c>
       <c r="M18">
-        <v>23.36409013395788</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.8059443226714</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.39823207736263</v>
+      </c>
+      <c r="P18">
+        <v>12.30825105244322</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.67701002759325</v>
+        <v>24.31792751487786</v>
       </c>
       <c r="C19">
-        <v>20.68692555202141</v>
+        <v>20.47069397455362</v>
       </c>
       <c r="D19">
-        <v>8.766048739849758</v>
+        <v>10.29031354301416</v>
       </c>
       <c r="E19">
-        <v>11.9434428423723</v>
+        <v>9.487296391716457</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>57.92304965491739</v>
+        <v>47.29029085381979</v>
       </c>
       <c r="H19">
-        <v>14.9910781656952</v>
+        <v>3.011448911316739</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.951135865317287</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.84097792270977</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.41149669363205</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.496687970196676</v>
       </c>
       <c r="M19">
-        <v>23.25464445572834</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.82860784137186</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.44411470437949</v>
+      </c>
+      <c r="P19">
+        <v>12.3630959288986</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.28499259433067</v>
+        <v>25.38760666473143</v>
       </c>
       <c r="C20">
-        <v>21.11747680556337</v>
+        <v>21.88086292321124</v>
       </c>
       <c r="D20">
-        <v>8.95430565890822</v>
+        <v>11.56917245992742</v>
       </c>
       <c r="E20">
-        <v>12.21459151650707</v>
+        <v>11.29150539545866</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.10153477813886</v>
+        <v>51.9612571111292</v>
       </c>
       <c r="H20">
-        <v>15.20937867239823</v>
+        <v>1.86214197242798</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.128686035353725</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.79960037037473</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.85059125926143</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.821780771751231</v>
       </c>
       <c r="M20">
-        <v>23.74491790173393</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.7268545688039</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.38684755211201</v>
+      </c>
+      <c r="P20">
+        <v>12.41418804061943</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.27628010731996</v>
+        <v>27.02007699482872</v>
       </c>
       <c r="C21">
-        <v>22.5292681937031</v>
+        <v>23.34869457326939</v>
       </c>
       <c r="D21">
-        <v>9.571921443045602</v>
+        <v>12.13805367878448</v>
       </c>
       <c r="E21">
-        <v>13.11363890269876</v>
+        <v>11.8805040424705</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.11106397239698</v>
+        <v>54.79830253645417</v>
       </c>
       <c r="H21">
-        <v>15.95302709288455</v>
+        <v>2.266598137385348</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.42272160361586</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.31048045186642</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.48893637782948</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.015965908719031</v>
       </c>
       <c r="M21">
-        <v>25.35439045862567</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.38923205469541</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.58471030593995</v>
+      </c>
+      <c r="P21">
+        <v>12.21132181792952</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.54151568909175</v>
+        <v>28.03590512367258</v>
       </c>
       <c r="C22">
-        <v>23.42766713497588</v>
+        <v>24.20957362041906</v>
       </c>
       <c r="D22">
-        <v>9.965177230869388</v>
+        <v>12.44807338507644</v>
       </c>
       <c r="E22">
-        <v>13.6909433956276</v>
+        <v>12.17193265279598</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>65.71669276354312</v>
+        <v>56.50610163030093</v>
       </c>
       <c r="H22">
-        <v>16.44732658269965</v>
+        <v>2.519918085103043</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.605935414187743</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.62064481291711</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.88102225574488</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.121735198440196</v>
       </c>
       <c r="M22">
-        <v>26.38008245752323</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.17198190902312</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.27170045214505</v>
+      </c>
+      <c r="P22">
+        <v>12.0758869732334</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.86939835127193</v>
+        <v>27.51888207458486</v>
       </c>
       <c r="C23">
-        <v>22.95028332284267</v>
+        <v>23.73447870918797</v>
       </c>
       <c r="D23">
-        <v>9.756191050977755</v>
+        <v>12.28309654064512</v>
       </c>
       <c r="E23">
-        <v>13.38367013284122</v>
+        <v>12.01711510109087</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>64.32770219775765</v>
+        <v>55.67251552790187</v>
       </c>
       <c r="H23">
-        <v>16.18269872343726</v>
+        <v>2.386421741895748</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.505870425555095</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.47175339119606</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.707138572952</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.065911481637752</v>
       </c>
       <c r="M23">
-        <v>25.83491239054331</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.28760167123852</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.91150565534518</v>
+      </c>
+      <c r="P23">
+        <v>12.15248622452242</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.25180379958912</v>
+        <v>25.43770833720659</v>
       </c>
       <c r="C24">
-        <v>21.09396782037339</v>
+        <v>21.89809946181596</v>
       </c>
       <c r="D24">
-        <v>8.944025250944749</v>
+        <v>11.64453599210714</v>
       </c>
       <c r="E24">
-        <v>12.19970366464439</v>
+        <v>11.41658617407936</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.03692852840285</v>
+        <v>52.32437825241239</v>
       </c>
       <c r="H24">
-        <v>15.19735373581058</v>
+        <v>1.87103891567812</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.126209570872643</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.87953025987085</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.99297819255089</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.850464534736544</v>
       </c>
       <c r="M24">
-        <v>23.71814121172911</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.73242681752059</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.49298878919996</v>
+      </c>
+      <c r="P24">
+        <v>12.43543662664576</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.2595553398196</v>
+        <v>22.99825846749287</v>
       </c>
       <c r="C25">
-        <v>18.9771671042669</v>
+        <v>19.77138866772988</v>
       </c>
       <c r="D25">
-        <v>8.018927931539377</v>
+        <v>10.92738215365132</v>
       </c>
       <c r="E25">
-        <v>11.06681011743796</v>
+        <v>10.7389552687377</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.34726086484376</v>
+        <v>48.56630466830567</v>
       </c>
       <c r="H25">
-        <v>14.16618995158253</v>
+        <v>1.830634085262017</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.707434444232068</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.23869408992875</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.2273209948978</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.610412278202605</v>
       </c>
       <c r="M25">
-        <v>21.31026892744381</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.22559073149981</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>18.86302465320761</v>
+      </c>
+      <c r="P25">
+        <v>12.74132252857101</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13228906934081</v>
+        <v>20.27300331490169</v>
       </c>
       <c r="C2">
-        <v>18.01952501347877</v>
+        <v>18.77698244572871</v>
       </c>
       <c r="D2">
-        <v>10.37655653757009</v>
+        <v>10.41329272338453</v>
       </c>
       <c r="E2">
-        <v>10.21507054103627</v>
+        <v>10.28252006976603</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.89575753110635</v>
+        <v>42.40461264989246</v>
       </c>
       <c r="H2">
-        <v>2.27795643400374</v>
+        <v>2.251093969197289</v>
       </c>
       <c r="I2">
-        <v>2.56673851627446</v>
+        <v>2.49392063371166</v>
       </c>
       <c r="J2">
-        <v>13.81095820498073</v>
+        <v>13.44834438609641</v>
       </c>
       <c r="K2">
-        <v>19.76181473976664</v>
+        <v>18.26510790102287</v>
       </c>
       <c r="L2">
-        <v>5.427678498883031</v>
+        <v>15.21723534732217</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.99604610730218</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.45560164461332</v>
       </c>
       <c r="O2">
-        <v>17.59159048618001</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.97959933908612</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.43295523016032</v>
+      </c>
+      <c r="R2">
+        <v>12.74037841140459</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76398763359976</v>
+        <v>18.9578091318256</v>
       </c>
       <c r="C3">
-        <v>16.78023176507174</v>
+        <v>17.4618366788135</v>
       </c>
       <c r="D3">
-        <v>9.990879538159456</v>
+        <v>10.03563382614648</v>
       </c>
       <c r="E3">
-        <v>9.844576194104517</v>
+        <v>9.931850830395835</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.90400380913877</v>
+        <v>40.74615793579325</v>
       </c>
       <c r="H3">
-        <v>2.595267650867016</v>
+        <v>2.543722911872594</v>
       </c>
       <c r="I3">
-        <v>2.798951058228584</v>
+        <v>2.69255985740631</v>
       </c>
       <c r="J3">
-        <v>13.49694024608462</v>
+        <v>13.15615900950393</v>
       </c>
       <c r="K3">
-        <v>19.39718389291601</v>
+        <v>18.03322561081196</v>
       </c>
       <c r="L3">
-        <v>5.298254718724222</v>
+        <v>15.18461251882</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.66471371365518</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.340305229351291</v>
       </c>
       <c r="O3">
-        <v>16.67322396389282</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.13604331543136</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.53271039872018</v>
+      </c>
+      <c r="R3">
+        <v>12.89345408638265</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.87449660505597</v>
+        <v>18.12261356897062</v>
       </c>
       <c r="C4">
-        <v>15.979373809039</v>
+        <v>16.61111627651885</v>
       </c>
       <c r="D4">
-        <v>9.748435299326232</v>
+        <v>9.798543077415944</v>
       </c>
       <c r="E4">
-        <v>9.609765558368649</v>
+        <v>9.709948741338014</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.64788272269222</v>
+        <v>39.70462922360646</v>
       </c>
       <c r="H4">
-        <v>2.796403992035257</v>
+        <v>2.729441491147098</v>
       </c>
       <c r="I4">
-        <v>2.946856275659259</v>
+        <v>2.819597884860966</v>
       </c>
       <c r="J4">
-        <v>13.30399770669007</v>
+        <v>12.97337958698952</v>
       </c>
       <c r="K4">
-        <v>19.1734700225849</v>
+        <v>17.89060617387899</v>
       </c>
       <c r="L4">
-        <v>5.216275968406666</v>
+        <v>15.15951708149011</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.47850805012105</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.267228147952096</v>
       </c>
       <c r="O4">
-        <v>16.08541466496287</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.23268691204005</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.95592495160451</v>
+      </c>
+      <c r="R4">
+        <v>12.98836077765558</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49213287707939</v>
+        <v>17.76299367732803</v>
       </c>
       <c r="C5">
-        <v>15.64981547254778</v>
+        <v>16.27165437494321</v>
       </c>
       <c r="D5">
-        <v>9.648353285679658</v>
+        <v>9.70076513310034</v>
       </c>
       <c r="E5">
-        <v>9.512228838068511</v>
+        <v>9.617891376714748</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.10394402730017</v>
+        <v>39.25172388071312</v>
       </c>
       <c r="H5">
-        <v>2.880406814446771</v>
+        <v>2.807045472561644</v>
       </c>
       <c r="I5">
-        <v>3.011559285001185</v>
+        <v>2.876203446868777</v>
       </c>
       <c r="J5">
-        <v>13.22054495902799</v>
+        <v>12.89347903917239</v>
       </c>
       <c r="K5">
-        <v>19.0722707994452</v>
+        <v>17.82313546967557</v>
       </c>
       <c r="L5">
-        <v>5.182075607816619</v>
+        <v>15.14030709660402</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.40082176425832</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.236739008652347</v>
       </c>
       <c r="O5">
-        <v>15.83864572594144</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.27092380523738</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.71368036291215</v>
+      </c>
+      <c r="R5">
+        <v>13.02641855253004</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41870485496182</v>
+        <v>17.69373540784235</v>
       </c>
       <c r="C6">
-        <v>15.60291172967881</v>
+        <v>16.22294761954625</v>
       </c>
       <c r="D6">
-        <v>9.631699796403765</v>
+        <v>9.684513191322676</v>
       </c>
       <c r="E6">
-        <v>9.495864350476818</v>
+        <v>9.602481871008376</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.98345559905071</v>
+        <v>39.14798856696906</v>
       </c>
       <c r="H6">
-        <v>2.894960299174639</v>
+        <v>2.820478922582761</v>
       </c>
       <c r="I6">
-        <v>3.026332955880566</v>
+        <v>2.890260461114652</v>
       </c>
       <c r="J6">
-        <v>13.20075370580401</v>
+        <v>12.87450980365029</v>
       </c>
       <c r="K6">
-        <v>19.04309638213081</v>
+        <v>17.80056947090566</v>
       </c>
       <c r="L6">
-        <v>5.176175075584174</v>
+        <v>15.127644247394</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.38036267047219</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.231487023075793</v>
       </c>
       <c r="O6">
-        <v>15.79560634323597</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.27568658363255</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.67146400148605</v>
+      </c>
+      <c r="R6">
+        <v>13.03170548893088</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.84486640133471</v>
+        <v>18.08416874446517</v>
       </c>
       <c r="C7">
-        <v>15.99739368188479</v>
+        <v>16.60863268876012</v>
       </c>
       <c r="D7">
-        <v>9.747207972770447</v>
+        <v>9.798015162510611</v>
       </c>
       <c r="E7">
-        <v>9.608299956782338</v>
+        <v>9.709434547122044</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.56061372163801</v>
+        <v>39.69521790736211</v>
       </c>
       <c r="H7">
-        <v>2.798895694449969</v>
+        <v>2.732645040946328</v>
       </c>
       <c r="I7">
-        <v>2.958251846292308</v>
+        <v>2.833430518946103</v>
       </c>
       <c r="J7">
-        <v>13.28677882869627</v>
+        <v>12.89625966889712</v>
       </c>
       <c r="K7">
-        <v>19.1384973233066</v>
+        <v>17.84453110998025</v>
       </c>
       <c r="L7">
-        <v>5.215326526654414</v>
+        <v>15.12235025170018</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.4456678179193</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.26630203139398</v>
       </c>
       <c r="O7">
-        <v>16.07749738904511</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.22889652297069</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.94145841474199</v>
+      </c>
+      <c r="R7">
+        <v>12.98483649683761</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64071987194638</v>
+        <v>19.76502259021526</v>
       </c>
       <c r="C8">
-        <v>17.62764898793986</v>
+        <v>18.29942153325526</v>
       </c>
       <c r="D8">
-        <v>10.24497108626577</v>
+        <v>10.28652341322563</v>
       </c>
       <c r="E8">
-        <v>10.08870209640352</v>
+        <v>10.16562243237918</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.11581853566924</v>
+        <v>41.97319445833283</v>
       </c>
       <c r="H8">
-        <v>2.387819500590038</v>
+        <v>2.35524555409568</v>
       </c>
       <c r="I8">
-        <v>2.659590261210298</v>
+        <v>2.580162531146287</v>
       </c>
       <c r="J8">
-        <v>13.68204232168478</v>
+        <v>13.13286236219732</v>
       </c>
       <c r="K8">
-        <v>19.59258936511878</v>
+        <v>18.09889081398121</v>
       </c>
       <c r="L8">
-        <v>5.382949042919458</v>
+        <v>15.13933445924951</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.81427240540146</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.415540191665056</v>
       </c>
       <c r="O8">
-        <v>17.27424516695523</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.02798621431913</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.10087718854516</v>
+      </c>
+      <c r="R8">
+        <v>12.78605905126173</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.88221434792379</v>
+        <v>22.82451914866547</v>
       </c>
       <c r="C9">
-        <v>20.47546487319003</v>
+        <v>21.31175543171383</v>
       </c>
       <c r="D9">
-        <v>11.17234618698415</v>
+        <v>11.19649724784554</v>
       </c>
       <c r="E9">
-        <v>10.97134320737154</v>
+        <v>11.00314245711528</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.97535290378961</v>
+        <v>46.09645254507217</v>
       </c>
       <c r="H9">
-        <v>1.627598493682957</v>
+        <v>1.656160858818778</v>
       </c>
       <c r="I9">
-        <v>2.84609681195598</v>
+        <v>2.852844461924376</v>
       </c>
       <c r="J9">
-        <v>14.48135854078572</v>
+        <v>13.81634990927393</v>
       </c>
       <c r="K9">
-        <v>20.54104137291439</v>
+        <v>18.70194557304252</v>
       </c>
       <c r="L9">
-        <v>5.693142037982387</v>
+        <v>15.21727357410119</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.73982316476994</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.691539189553406</v>
       </c>
       <c r="O9">
-        <v>19.43237541245463</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.64499764976016</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.20974520922025</v>
+      </c>
+      <c r="R9">
+        <v>12.4115523610637</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.98441049670211</v>
+        <v>24.72868124104347</v>
       </c>
       <c r="C10">
-        <v>22.29982669369643</v>
+        <v>23.14664464037649</v>
       </c>
       <c r="D10">
-        <v>11.71381464940642</v>
+        <v>11.73028263149299</v>
       </c>
       <c r="E10">
-        <v>11.41390611427438</v>
+        <v>11.41933514021403</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.9554619741646</v>
+        <v>48.98257358107769</v>
       </c>
       <c r="H10">
-        <v>1.99836856549614</v>
+        <v>1.9246998884407</v>
       </c>
       <c r="I10">
-        <v>3.218867846963164</v>
+        <v>3.168190357157087</v>
       </c>
       <c r="J10">
-        <v>14.97841232959027</v>
+        <v>13.90863999208966</v>
       </c>
       <c r="K10">
-        <v>21.09827775082914</v>
+        <v>18.95359966781431</v>
       </c>
       <c r="L10">
-        <v>5.871212869792992</v>
+        <v>15.11369709604102</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.32673871358505</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.844698865750568</v>
       </c>
       <c r="O10">
-        <v>20.74160833227853</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.34835500310332</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.45303337863124</v>
+      </c>
+      <c r="R10">
+        <v>12.13002581115907</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.39849972047973</v>
+        <v>25.07163774807055</v>
       </c>
       <c r="C11">
-        <v>22.34958280360959</v>
+        <v>22.98099346191529</v>
       </c>
       <c r="D11">
-        <v>11.04254978984368</v>
+        <v>11.06164282199933</v>
       </c>
       <c r="E11">
-        <v>10.24245986257</v>
+        <v>10.23328106615167</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.05642987461098</v>
+        <v>47.97413375242404</v>
       </c>
       <c r="H11">
-        <v>2.901056146547442</v>
+        <v>2.839173266283259</v>
       </c>
       <c r="I11">
-        <v>3.312078751987223</v>
+        <v>3.244361803725234</v>
       </c>
       <c r="J11">
-        <v>14.50711639128514</v>
+        <v>12.824492819719</v>
       </c>
       <c r="K11">
-        <v>20.25142898889123</v>
+        <v>18.03108427061632</v>
       </c>
       <c r="L11">
-        <v>5.706871253438473</v>
+        <v>14.32517407129036</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.76515882621157</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.663138001758557</v>
       </c>
       <c r="O11">
-        <v>20.02769111742594</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.11057435799765</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.67752733937342</v>
+      </c>
+      <c r="R11">
+        <v>11.99233156135963</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.34732541167656</v>
+        <v>25.0273148766307</v>
       </c>
       <c r="C12">
-        <v>21.98827296523458</v>
+        <v>22.48703777628378</v>
       </c>
       <c r="D12">
-        <v>10.36058065818026</v>
+        <v>10.38062103944479</v>
       </c>
       <c r="E12">
-        <v>9.29272258426357</v>
+        <v>9.26784178397039</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.89780970907337</v>
+        <v>46.36655797525602</v>
       </c>
       <c r="H12">
-        <v>4.156383248038579</v>
+        <v>4.113491190805338</v>
       </c>
       <c r="I12">
-        <v>3.314174031431818</v>
+        <v>3.244047217378602</v>
       </c>
       <c r="J12">
-        <v>14.01853668334403</v>
+        <v>12.11320384049457</v>
       </c>
       <c r="K12">
-        <v>19.45839612216077</v>
+        <v>17.28750526205772</v>
       </c>
       <c r="L12">
-        <v>5.662086486871586</v>
+        <v>13.75662874018377</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.22635673767365</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.60786056414138</v>
       </c>
       <c r="O12">
-        <v>19.14544703407952</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.01085485256978</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.77656548572137</v>
+      </c>
+      <c r="R12">
+        <v>11.9743206887006</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.90573196771502</v>
+        <v>24.67416316340622</v>
       </c>
       <c r="C13">
-        <v>21.30206385783946</v>
+        <v>21.75478500399137</v>
       </c>
       <c r="D13">
-        <v>9.618715251545348</v>
+        <v>9.637045790902063</v>
       </c>
       <c r="E13">
-        <v>8.486386068846237</v>
+        <v>8.446653349830022</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.24719413743802</v>
+        <v>43.89713142302407</v>
       </c>
       <c r="H13">
-        <v>5.468288504863678</v>
+        <v>5.442000269054124</v>
       </c>
       <c r="I13">
-        <v>3.249231948793935</v>
+        <v>3.190994431915416</v>
       </c>
       <c r="J13">
-        <v>13.45742567277692</v>
+        <v>11.72732016470272</v>
       </c>
       <c r="K13">
-        <v>18.60258671962351</v>
+        <v>16.61555154385982</v>
       </c>
       <c r="L13">
-        <v>5.704354057440749</v>
+        <v>13.29809025726746</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.65860487202297</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.647855160113092</v>
       </c>
       <c r="O13">
-        <v>18.05117198366453</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.0032482293735</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.70853475745281</v>
+      </c>
+      <c r="R13">
+        <v>12.03002764242236</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.40851101574957</v>
+        <v>24.27638313800608</v>
       </c>
       <c r="C14">
-        <v>20.66994109555201</v>
+        <v>21.12687098623588</v>
       </c>
       <c r="D14">
-        <v>9.070458510603837</v>
+        <v>9.086618955002901</v>
       </c>
       <c r="E14">
-        <v>8.038343828077481</v>
+        <v>7.991798869046179</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.12109876542101</v>
+        <v>41.7406955585977</v>
       </c>
       <c r="H14">
-        <v>6.464190869011133</v>
+        <v>6.479654429145902</v>
       </c>
       <c r="I14">
-        <v>3.174759748323824</v>
+        <v>3.131475040194662</v>
       </c>
       <c r="J14">
-        <v>13.02576570290869</v>
+        <v>11.58378906762947</v>
       </c>
       <c r="K14">
-        <v>17.96631291425712</v>
+        <v>16.16651056073605</v>
       </c>
       <c r="L14">
-        <v>5.787899695627826</v>
+        <v>13.01538310453411</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.24081497987681</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.734868261806285</v>
       </c>
       <c r="O14">
-        <v>17.17501565347811</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.04211898686691</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.87040915224008</v>
+      </c>
+      <c r="R14">
+        <v>12.09998385187908</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.19445401723342</v>
+        <v>24.10324926334182</v>
       </c>
       <c r="C15">
-        <v>20.45053920524579</v>
+        <v>20.92402937737572</v>
       </c>
       <c r="D15">
-        <v>8.923934699197666</v>
+        <v>8.939345573201694</v>
       </c>
       <c r="E15">
-        <v>7.94203800383699</v>
+        <v>7.896266643809318</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.47081612235479</v>
+        <v>41.01776088914744</v>
       </c>
       <c r="H15">
-        <v>6.706643913416596</v>
+        <v>6.720736581900652</v>
       </c>
       <c r="I15">
-        <v>3.142934767827462</v>
+        <v>3.106853165126248</v>
       </c>
       <c r="J15">
-        <v>12.90072349894955</v>
+        <v>11.59888178318012</v>
       </c>
       <c r="K15">
-        <v>17.78819701389031</v>
+        <v>16.05941956695358</v>
       </c>
       <c r="L15">
-        <v>5.808196466976046</v>
+        <v>12.95779742242646</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.12454860272114</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.758111744315539</v>
       </c>
       <c r="O15">
-        <v>16.91377753352266</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.06651035509299</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.62694444200922</v>
+      </c>
+      <c r="R15">
+        <v>12.12739628849633</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.37900909892634</v>
+        <v>23.42797542442321</v>
       </c>
       <c r="C16">
-        <v>19.79451061840084</v>
+        <v>20.39746730451431</v>
       </c>
       <c r="D16">
-        <v>8.816692469802421</v>
+        <v>8.831187456378284</v>
       </c>
       <c r="E16">
-        <v>7.884931596597039</v>
+        <v>7.859457312718225</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.54809392856787</v>
+        <v>39.56272363806771</v>
       </c>
       <c r="H16">
-        <v>6.513736332732297</v>
+        <v>6.524043441040837</v>
       </c>
       <c r="I16">
-        <v>2.999959159057608</v>
+        <v>2.992466876723622</v>
       </c>
       <c r="J16">
-        <v>12.77692422210837</v>
+        <v>12.05588901917337</v>
       </c>
       <c r="K16">
-        <v>17.686230425883</v>
+        <v>16.16287094534909</v>
       </c>
       <c r="L16">
-        <v>5.7171951308691</v>
+        <v>13.12246140784692</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.05832400632854</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.684216603124539</v>
       </c>
       <c r="O16">
-        <v>16.51927268958003</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.18578567856956</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.30332433723056</v>
+      </c>
+      <c r="R16">
+        <v>12.20834239615048</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.01692277779689</v>
+        <v>23.10756261772281</v>
       </c>
       <c r="C17">
-        <v>19.63689312691425</v>
+        <v>20.31620663562585</v>
       </c>
       <c r="D17">
-        <v>9.0312349483492</v>
+        <v>9.046788611290982</v>
       </c>
       <c r="E17">
-        <v>8.056274335808057</v>
+        <v>8.046074379987198</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.01034461946001</v>
+        <v>39.7251105373965</v>
       </c>
       <c r="H17">
-        <v>5.784186158167916</v>
+        <v>5.79322079361223</v>
       </c>
       <c r="I17">
-        <v>2.929589849390294</v>
+        <v>2.93531133254543</v>
       </c>
       <c r="J17">
-        <v>12.91552183180369</v>
+        <v>12.42059560357856</v>
       </c>
       <c r="K17">
-        <v>17.94922163707841</v>
+        <v>16.46690240135221</v>
       </c>
       <c r="L17">
-        <v>5.590713002755449</v>
+        <v>13.39574725529089</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.21629044785237</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.567170243319546</v>
       </c>
       <c r="O17">
-        <v>16.69886148184333</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.25588741730293</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.50899221883305</v>
+      </c>
+      <c r="R17">
+        <v>12.24064887587052</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.03367119582398</v>
+        <v>23.10038974775239</v>
       </c>
       <c r="C18">
-        <v>19.88545679342262</v>
+        <v>20.63495424090624</v>
       </c>
       <c r="D18">
-        <v>9.553764566902712</v>
+        <v>9.570477501686788</v>
       </c>
       <c r="E18">
-        <v>8.57534562379656</v>
+        <v>8.576403564831454</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.77116409605971</v>
+        <v>41.21235219452598</v>
       </c>
       <c r="H18">
-        <v>4.526539138511263</v>
+        <v>4.537524230162555</v>
       </c>
       <c r="I18">
-        <v>2.912842141272019</v>
+        <v>2.919687995331777</v>
       </c>
       <c r="J18">
-        <v>13.30576499000696</v>
+        <v>12.8667835644822</v>
       </c>
       <c r="K18">
-        <v>18.58131601056402</v>
+        <v>17.02998460530911</v>
       </c>
       <c r="L18">
-        <v>5.483314255647887</v>
+        <v>13.8359108304237</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.6192676428214</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.464914801664222</v>
       </c>
       <c r="O18">
-        <v>17.39823207736263</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.30825105244322</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.21031805566267</v>
+      </c>
+      <c r="R18">
+        <v>12.24451148416975</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.31792751487786</v>
+        <v>23.31914879711838</v>
       </c>
       <c r="C19">
-        <v>20.47069397455362</v>
+        <v>21.2909754994968</v>
       </c>
       <c r="D19">
-        <v>10.29031354301416</v>
+        <v>10.30757164300235</v>
       </c>
       <c r="E19">
-        <v>9.487296391716457</v>
+        <v>9.495635535957518</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>47.29029085381979</v>
+        <v>43.45004964002062</v>
       </c>
       <c r="H19">
-        <v>3.011448911316739</v>
+        <v>3.03011843395362</v>
       </c>
       <c r="I19">
-        <v>2.951135865317287</v>
+        <v>2.95212499492336</v>
       </c>
       <c r="J19">
-        <v>13.84097792270977</v>
+        <v>13.36559902876358</v>
       </c>
       <c r="K19">
-        <v>19.41149669363205</v>
+        <v>17.72491838567524</v>
       </c>
       <c r="L19">
-        <v>5.496687970196676</v>
+        <v>14.35442911261741</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.15752077208659</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.480754131232189</v>
       </c>
       <c r="O19">
-        <v>18.44411470437949</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.3630959288986</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.24383018602036</v>
+      </c>
+      <c r="R19">
+        <v>12.24239391522052</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.38760666473143</v>
+        <v>24.21403714654872</v>
       </c>
       <c r="C20">
-        <v>21.88086292321124</v>
+        <v>22.77580700782851</v>
       </c>
       <c r="D20">
-        <v>11.56917245992742</v>
+        <v>11.58554180303089</v>
       </c>
       <c r="E20">
-        <v>11.29150539545866</v>
+        <v>11.30124143656294</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.9612571111292</v>
+        <v>47.80225907290396</v>
       </c>
       <c r="H20">
-        <v>1.86214197242798</v>
+        <v>1.803619810293035</v>
       </c>
       <c r="I20">
-        <v>3.128686035353725</v>
+        <v>3.099601644109068</v>
       </c>
       <c r="J20">
-        <v>14.79960037037473</v>
+        <v>14.03538582874903</v>
       </c>
       <c r="K20">
-        <v>20.85059125926143</v>
+        <v>18.84215189323127</v>
       </c>
       <c r="L20">
-        <v>5.821780771751231</v>
+        <v>15.10883861669513</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.13380225376954</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.802205292334479</v>
       </c>
       <c r="O20">
-        <v>20.38684755211201</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.41418804061943</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.13591445151554</v>
+      </c>
+      <c r="R20">
+        <v>12.20080683976094</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.02007699482872</v>
+        <v>25.54108321012001</v>
       </c>
       <c r="C21">
-        <v>23.34869457326939</v>
+        <v>23.99532916692241</v>
       </c>
       <c r="D21">
-        <v>12.13805367878448</v>
+        <v>12.16027293145111</v>
       </c>
       <c r="E21">
-        <v>11.8805040424705</v>
+        <v>11.88750052370802</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.79830253645417</v>
+        <v>51.65715070190308</v>
       </c>
       <c r="H21">
-        <v>2.266598137385348</v>
+        <v>2.156875413980187</v>
       </c>
       <c r="I21">
-        <v>3.42272160361586</v>
+        <v>3.334118444874781</v>
       </c>
       <c r="J21">
-        <v>15.31048045186642</v>
+        <v>13.21433869604727</v>
       </c>
       <c r="K21">
-        <v>21.48893637782948</v>
+        <v>18.96710989974545</v>
       </c>
       <c r="L21">
-        <v>6.015965908719031</v>
+        <v>14.97973951951886</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.54067724947788</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.978019846237834</v>
       </c>
       <c r="O21">
-        <v>21.58471030593995</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.21132181792952</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.17834377039526</v>
+      </c>
+      <c r="R21">
+        <v>11.98241888374922</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.03590512367258</v>
+        <v>26.35922921270361</v>
       </c>
       <c r="C22">
-        <v>24.20957362041906</v>
+        <v>24.67950129858997</v>
       </c>
       <c r="D22">
-        <v>12.44807338507644</v>
+        <v>12.47534289038028</v>
       </c>
       <c r="E22">
-        <v>12.17193265279598</v>
+        <v>12.17913352717362</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.50610163030093</v>
+        <v>54.11267747543781</v>
       </c>
       <c r="H22">
-        <v>2.519918085103043</v>
+        <v>2.377349978988336</v>
       </c>
       <c r="I22">
-        <v>3.605935414187743</v>
+        <v>3.477614834723099</v>
       </c>
       <c r="J22">
-        <v>15.62064481291711</v>
+        <v>12.60611474154192</v>
       </c>
       <c r="K22">
-        <v>21.88102225574488</v>
+        <v>19.01474710174174</v>
       </c>
       <c r="L22">
-        <v>6.121735198440196</v>
+        <v>14.8700073494683</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.78470741570935</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.072360013064187</v>
       </c>
       <c r="O22">
-        <v>22.27170045214505</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.0758869732334</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.7602391368822</v>
+      </c>
+      <c r="R22">
+        <v>11.84087145753209</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.51888207458486</v>
+        <v>25.96541312415266</v>
       </c>
       <c r="C23">
-        <v>23.73447870918797</v>
+        <v>24.33538318174888</v>
       </c>
       <c r="D23">
-        <v>12.28309654064512</v>
+        <v>12.30594895253455</v>
       </c>
       <c r="E23">
-        <v>12.01711510109087</v>
+        <v>12.02162639037314</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>55.67251552790187</v>
+        <v>52.71957553067899</v>
       </c>
       <c r="H23">
-        <v>2.386421741895748</v>
+        <v>2.262857311252966</v>
       </c>
       <c r="I23">
-        <v>3.505870425555095</v>
+        <v>3.398740043272948</v>
       </c>
       <c r="J23">
-        <v>15.47175339119606</v>
+        <v>13.07999938042966</v>
       </c>
       <c r="K23">
-        <v>21.707138572952</v>
+        <v>19.05551283980546</v>
       </c>
       <c r="L23">
-        <v>6.065911481637752</v>
+        <v>14.97518807924596</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.70740145919256</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.022354695978698</v>
       </c>
       <c r="O23">
-        <v>21.91150565534518</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.15248622452242</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.46967257690201</v>
+      </c>
+      <c r="R23">
+        <v>11.91892144682635</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43770833720659</v>
+        <v>24.25772151034874</v>
       </c>
       <c r="C24">
-        <v>21.89809946181596</v>
+        <v>22.80267522581777</v>
       </c>
       <c r="D24">
-        <v>11.64453599210714</v>
+        <v>11.66083370749241</v>
       </c>
       <c r="E24">
-        <v>11.41658617407936</v>
+        <v>11.42680026920431</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.32437825241239</v>
+        <v>48.12441924936671</v>
       </c>
       <c r="H24">
-        <v>1.87103891567812</v>
+        <v>1.811651830420735</v>
       </c>
       <c r="I24">
-        <v>3.126209570872643</v>
+        <v>3.094220710602346</v>
       </c>
       <c r="J24">
-        <v>14.87953025987085</v>
+        <v>14.1178825267954</v>
       </c>
       <c r="K24">
-        <v>20.99297819255089</v>
+        <v>18.96886536650815</v>
       </c>
       <c r="L24">
-        <v>5.850464534736544</v>
+        <v>15.20474221746941</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.22962141493577</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.831284844376436</v>
       </c>
       <c r="O24">
-        <v>20.49298878919996</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.43543662664576</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.24134741541175</v>
+      </c>
+      <c r="R24">
+        <v>12.21076690832598</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99825846749287</v>
+        <v>22.0173901544106</v>
       </c>
       <c r="C25">
-        <v>19.77138866772988</v>
+        <v>20.58789167828306</v>
       </c>
       <c r="D25">
-        <v>10.92738215365132</v>
+        <v>10.95512082597605</v>
       </c>
       <c r="E25">
-        <v>10.7389552687377</v>
+        <v>10.78146841137526</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.56630466830567</v>
+        <v>44.79047110053418</v>
       </c>
       <c r="H25">
-        <v>1.830634085262017</v>
+        <v>1.841343735360176</v>
       </c>
       <c r="I25">
-        <v>2.707434444232068</v>
+        <v>2.738185127348825</v>
       </c>
       <c r="J25">
-        <v>14.23869408992875</v>
+        <v>13.69028458132335</v>
       </c>
       <c r="K25">
-        <v>20.2273209948978</v>
+        <v>18.50582357456331</v>
       </c>
       <c r="L25">
-        <v>5.610412278202605</v>
+        <v>15.17563335598394</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.45193377329756</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.618135739547113</v>
       </c>
       <c r="O25">
-        <v>18.86302465320761</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.74132252857101</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.66259374497156</v>
+      </c>
+      <c r="R25">
+        <v>12.50996547020592</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
